--- a/counts/ALS Mice/experimental/results/control_1-control_3/KEGG.xlsx
+++ b/counts/ALS Mice/experimental/results/control_1-control_3/KEGG.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="749">
   <si>
     <t>ID</t>
   </si>
@@ -75,12 +75,12 @@
     <t>mmu04137</t>
   </si>
   <si>
+    <t>mmu00020</t>
+  </si>
+  <si>
     <t>mmu01230</t>
   </si>
   <si>
-    <t>mmu00020</t>
-  </si>
-  <si>
     <t>mmu04142</t>
   </si>
   <si>
@@ -102,12 +102,12 @@
     <t>mmu00240</t>
   </si>
   <si>
+    <t>mmu05169</t>
+  </si>
+  <si>
     <t>mmu00010</t>
   </si>
   <si>
-    <t>mmu05169</t>
-  </si>
-  <si>
     <t>mmu05014</t>
   </si>
   <si>
@@ -156,21 +156,21 @@
     <t>mmu04216</t>
   </si>
   <si>
+    <t>mmu00604</t>
+  </si>
+  <si>
     <t>mmu04066</t>
   </si>
   <si>
-    <t>mmu00604</t>
-  </si>
-  <si>
     <t>mmu00480</t>
   </si>
   <si>
+    <t>mmu04146</t>
+  </si>
+  <si>
     <t>mmu04910</t>
   </si>
   <si>
-    <t>mmu04146</t>
-  </si>
-  <si>
     <t>mmu03030</t>
   </si>
   <si>
@@ -201,12 +201,12 @@
     <t>mmu04722</t>
   </si>
   <si>
+    <t>mmu04070</t>
+  </si>
+  <si>
     <t>mmu04721</t>
   </si>
   <si>
-    <t>mmu04070</t>
-  </si>
-  <si>
     <t>mmu00562</t>
   </si>
   <si>
@@ -219,6 +219,9 @@
     <t>mmu01210</t>
   </si>
   <si>
+    <t>mmu00071</t>
+  </si>
+  <si>
     <t>mmu04370</t>
   </si>
   <si>
@@ -264,12 +267,12 @@
     <t>Mitophagy - animal</t>
   </si>
   <si>
+    <t>Citrate cycle (TCA cycle)</t>
+  </si>
+  <si>
     <t>Biosynthesis of amino acids</t>
   </si>
   <si>
-    <t>Citrate cycle (TCA cycle)</t>
-  </si>
-  <si>
     <t>Lysosome</t>
   </si>
   <si>
@@ -291,12 +294,12 @@
     <t>Pyrimidine metabolism</t>
   </si>
   <si>
+    <t>Epstein-Barr virus infection</t>
+  </si>
+  <si>
     <t>Glycolysis / Gluconeogenesis</t>
   </si>
   <si>
-    <t>Epstein-Barr virus infection</t>
-  </si>
-  <si>
     <t>Amyotrophic lateral sclerosis (ALS)</t>
   </si>
   <si>
@@ -345,21 +348,21 @@
     <t>Ferroptosis</t>
   </si>
   <si>
+    <t>Glycosphingolipid biosynthesis - ganglio series</t>
+  </si>
+  <si>
     <t>HIF-1 signaling pathway</t>
   </si>
   <si>
-    <t>Glycosphingolipid biosynthesis - ganglio series</t>
-  </si>
-  <si>
     <t>Glutathione metabolism</t>
   </si>
   <si>
+    <t>Peroxisome</t>
+  </si>
+  <si>
     <t>Insulin signaling pathway</t>
   </si>
   <si>
-    <t>Peroxisome</t>
-  </si>
-  <si>
     <t>DNA replication</t>
   </si>
   <si>
@@ -390,12 +393,12 @@
     <t>Neurotrophin signaling pathway</t>
   </si>
   <si>
+    <t>Phosphatidylinositol signaling system</t>
+  </si>
+  <si>
     <t>Synaptic vesicle cycle</t>
   </si>
   <si>
-    <t>Phosphatidylinositol signaling system</t>
-  </si>
-  <si>
     <t>Inositol phosphate metabolism</t>
   </si>
   <si>
@@ -408,6 +411,9 @@
     <t>2-Oxocarboxylic acid metabolism</t>
   </si>
   <si>
+    <t>Fatty acid degradation</t>
+  </si>
+  <si>
     <t>VEGF signaling pathway</t>
   </si>
   <si>
@@ -420,316 +426,316 @@
     <t>Fatty acid metabolism</t>
   </si>
   <si>
-    <t>108/3012</t>
-  </si>
-  <si>
-    <t>113/3012</t>
-  </si>
-  <si>
-    <t>134/3012</t>
-  </si>
-  <si>
-    <t>124/3012</t>
-  </si>
-  <si>
-    <t>107/3012</t>
-  </si>
-  <si>
-    <t>119/3012</t>
-  </si>
-  <si>
-    <t>42/3012</t>
-  </si>
-  <si>
-    <t>77/3012</t>
-  </si>
-  <si>
-    <t>35/3012</t>
-  </si>
-  <si>
-    <t>27/3012</t>
-  </si>
-  <si>
-    <t>49/3012</t>
-  </si>
-  <si>
-    <t>25/3012</t>
-  </si>
-  <si>
-    <t>71/3012</t>
-  </si>
-  <si>
-    <t>75/3012</t>
-  </si>
-  <si>
-    <t>31/3012</t>
-  </si>
-  <si>
-    <t>82/3012</t>
-  </si>
-  <si>
-    <t>89/3012</t>
-  </si>
-  <si>
-    <t>76/3012</t>
-  </si>
-  <si>
-    <t>58/3012</t>
-  </si>
-  <si>
-    <t>41/3012</t>
-  </si>
-  <si>
-    <t>110/3012</t>
-  </si>
-  <si>
-    <t>33/3012</t>
-  </si>
-  <si>
-    <t>32/3012</t>
-  </si>
-  <si>
-    <t>90/3012</t>
-  </si>
-  <si>
-    <t>45/3012</t>
-  </si>
-  <si>
-    <t>85/3012</t>
-  </si>
-  <si>
-    <t>74/3012</t>
-  </si>
-  <si>
-    <t>21/3012</t>
-  </si>
-  <si>
-    <t>34/3012</t>
-  </si>
-  <si>
-    <t>22/3012</t>
-  </si>
-  <si>
-    <t>39/3012</t>
-  </si>
-  <si>
-    <t>88/3012</t>
-  </si>
-  <si>
-    <t>67/3012</t>
-  </si>
-  <si>
-    <t>14/3012</t>
-  </si>
-  <si>
-    <t>26/3012</t>
-  </si>
-  <si>
-    <t>56/3012</t>
-  </si>
-  <si>
-    <t>12/3012</t>
-  </si>
-  <si>
-    <t>70/3012</t>
-  </si>
-  <si>
-    <t>20/3012</t>
-  </si>
-  <si>
-    <t>64/3012</t>
-  </si>
-  <si>
-    <t>123/3012</t>
-  </si>
-  <si>
-    <t>60/3012</t>
-  </si>
-  <si>
-    <t>50/3012</t>
-  </si>
-  <si>
-    <t>38/3012</t>
-  </si>
-  <si>
-    <t>36/3012</t>
-  </si>
-  <si>
-    <t>13/3012</t>
-  </si>
-  <si>
-    <t>98/3012</t>
-  </si>
-  <si>
-    <t>53/3012</t>
-  </si>
-  <si>
-    <t>28/3012</t>
-  </si>
-  <si>
-    <t>134/8114</t>
-  </si>
-  <si>
-    <t>144/8114</t>
-  </si>
-  <si>
-    <t>194/8114</t>
-  </si>
-  <si>
-    <t>177/8114</t>
-  </si>
-  <si>
-    <t>151/8114</t>
-  </si>
-  <si>
-    <t>175/8114</t>
-  </si>
-  <si>
-    <t>46/8114</t>
-  </si>
-  <si>
-    <t>120/8114</t>
-  </si>
-  <si>
-    <t>49/8114</t>
-  </si>
-  <si>
-    <t>35/8114</t>
-  </si>
-  <si>
-    <t>63/8114</t>
-  </si>
-  <si>
-    <t>77/8114</t>
-  </si>
-  <si>
-    <t>32/8114</t>
-  </si>
-  <si>
-    <t>124/8114</t>
-  </si>
-  <si>
-    <t>133/8114</t>
-  </si>
-  <si>
-    <t>44/8114</t>
-  </si>
-  <si>
-    <t>150/8114</t>
-  </si>
-  <si>
-    <t>167/8114</t>
-  </si>
-  <si>
-    <t>140/8114</t>
-  </si>
-  <si>
-    <t>101/8114</t>
-  </si>
-  <si>
-    <t>67/8114</t>
-  </si>
-  <si>
-    <t>220/8114</t>
-  </si>
-  <si>
-    <t>52/8114</t>
-  </si>
-  <si>
-    <t>50/8114</t>
-  </si>
-  <si>
-    <t>178/8114</t>
-  </si>
-  <si>
-    <t>78/8114</t>
-  </si>
-  <si>
-    <t>142/8114</t>
-  </si>
-  <si>
-    <t>30/8114</t>
-  </si>
-  <si>
-    <t>56/8114</t>
-  </si>
-  <si>
-    <t>38/8114</t>
-  </si>
-  <si>
-    <t>130/8114</t>
-  </si>
-  <si>
-    <t>18/8114</t>
-  </si>
-  <si>
-    <t>33/8114</t>
-  </si>
-  <si>
-    <t>41/8114</t>
-  </si>
-  <si>
-    <t>106/8114</t>
-  </si>
-  <si>
-    <t>15/8114</t>
-  </si>
-  <si>
-    <t>61/8114</t>
-  </si>
-  <si>
-    <t>141/8114</t>
-  </si>
-  <si>
-    <t>84/8114</t>
-  </si>
-  <si>
-    <t>31/8114</t>
-  </si>
-  <si>
-    <t>128/8114</t>
-  </si>
-  <si>
-    <t>136/8114</t>
-  </si>
-  <si>
-    <t>270/8114</t>
-  </si>
-  <si>
-    <t>186/8114</t>
-  </si>
-  <si>
-    <t>64/8114</t>
-  </si>
-  <si>
-    <t>121/8114</t>
-  </si>
-  <si>
-    <t>62/8114</t>
-  </si>
-  <si>
-    <t>98/8114</t>
-  </si>
-  <si>
-    <t>72/8114</t>
-  </si>
-  <si>
-    <t>48/8114</t>
-  </si>
-  <si>
-    <t>68/8114</t>
-  </si>
-  <si>
-    <t>19/8114</t>
-  </si>
-  <si>
-    <t>58/8114</t>
-  </si>
-  <si>
-    <t>217/8114</t>
-  </si>
-  <si>
-    <t>109/8114</t>
+    <t>108/3003</t>
+  </si>
+  <si>
+    <t>113/3003</t>
+  </si>
+  <si>
+    <t>134/3003</t>
+  </si>
+  <si>
+    <t>124/3003</t>
+  </si>
+  <si>
+    <t>107/3003</t>
+  </si>
+  <si>
+    <t>119/3003</t>
+  </si>
+  <si>
+    <t>42/3003</t>
+  </si>
+  <si>
+    <t>76/3003</t>
+  </si>
+  <si>
+    <t>35/3003</t>
+  </si>
+  <si>
+    <t>27/3003</t>
+  </si>
+  <si>
+    <t>25/3003</t>
+  </si>
+  <si>
+    <t>48/3003</t>
+  </si>
+  <si>
+    <t>71/3003</t>
+  </si>
+  <si>
+    <t>75/3003</t>
+  </si>
+  <si>
+    <t>31/3003</t>
+  </si>
+  <si>
+    <t>82/3003</t>
+  </si>
+  <si>
+    <t>89/3003</t>
+  </si>
+  <si>
+    <t>58/3003</t>
+  </si>
+  <si>
+    <t>110/3003</t>
+  </si>
+  <si>
+    <t>40/3003</t>
+  </si>
+  <si>
+    <t>33/3003</t>
+  </si>
+  <si>
+    <t>32/3003</t>
+  </si>
+  <si>
+    <t>90/3003</t>
+  </si>
+  <si>
+    <t>45/3003</t>
+  </si>
+  <si>
+    <t>85/3003</t>
+  </si>
+  <si>
+    <t>74/3003</t>
+  </si>
+  <si>
+    <t>21/3003</t>
+  </si>
+  <si>
+    <t>34/3003</t>
+  </si>
+  <si>
+    <t>22/3003</t>
+  </si>
+  <si>
+    <t>39/3003</t>
+  </si>
+  <si>
+    <t>88/3003</t>
+  </si>
+  <si>
+    <t>67/3003</t>
+  </si>
+  <si>
+    <t>14/3003</t>
+  </si>
+  <si>
+    <t>26/3003</t>
+  </si>
+  <si>
+    <t>12/3003</t>
+  </si>
+  <si>
+    <t>55/3003</t>
+  </si>
+  <si>
+    <t>70/3003</t>
+  </si>
+  <si>
+    <t>20/3003</t>
+  </si>
+  <si>
+    <t>64/3003</t>
+  </si>
+  <si>
+    <t>123/3003</t>
+  </si>
+  <si>
+    <t>60/3003</t>
+  </si>
+  <si>
+    <t>50/3003</t>
+  </si>
+  <si>
+    <t>38/3003</t>
+  </si>
+  <si>
+    <t>36/3003</t>
+  </si>
+  <si>
+    <t>13/3003</t>
+  </si>
+  <si>
+    <t>98/3003</t>
+  </si>
+  <si>
+    <t>53/3003</t>
+  </si>
+  <si>
+    <t>28/3003</t>
+  </si>
+  <si>
+    <t>134/8092</t>
+  </si>
+  <si>
+    <t>144/8092</t>
+  </si>
+  <si>
+    <t>194/8092</t>
+  </si>
+  <si>
+    <t>177/8092</t>
+  </si>
+  <si>
+    <t>151/8092</t>
+  </si>
+  <si>
+    <t>175/8092</t>
+  </si>
+  <si>
+    <t>46/8092</t>
+  </si>
+  <si>
+    <t>119/8092</t>
+  </si>
+  <si>
+    <t>49/8092</t>
+  </si>
+  <si>
+    <t>35/8092</t>
+  </si>
+  <si>
+    <t>63/8092</t>
+  </si>
+  <si>
+    <t>32/8092</t>
+  </si>
+  <si>
+    <t>76/8092</t>
+  </si>
+  <si>
+    <t>124/8092</t>
+  </si>
+  <si>
+    <t>133/8092</t>
+  </si>
+  <si>
+    <t>44/8092</t>
+  </si>
+  <si>
+    <t>150/8092</t>
+  </si>
+  <si>
+    <t>167/8092</t>
+  </si>
+  <si>
+    <t>140/8092</t>
+  </si>
+  <si>
+    <t>101/8092</t>
+  </si>
+  <si>
+    <t>220/8092</t>
+  </si>
+  <si>
+    <t>66/8092</t>
+  </si>
+  <si>
+    <t>52/8092</t>
+  </si>
+  <si>
+    <t>50/8092</t>
+  </si>
+  <si>
+    <t>178/8092</t>
+  </si>
+  <si>
+    <t>78/8092</t>
+  </si>
+  <si>
+    <t>142/8092</t>
+  </si>
+  <si>
+    <t>30/8092</t>
+  </si>
+  <si>
+    <t>56/8092</t>
+  </si>
+  <si>
+    <t>38/8092</t>
+  </si>
+  <si>
+    <t>67/8092</t>
+  </si>
+  <si>
+    <t>130/8092</t>
+  </si>
+  <si>
+    <t>18/8092</t>
+  </si>
+  <si>
+    <t>33/8092</t>
+  </si>
+  <si>
+    <t>41/8092</t>
+  </si>
+  <si>
+    <t>15/8092</t>
+  </si>
+  <si>
+    <t>105/8092</t>
+  </si>
+  <si>
+    <t>61/8092</t>
+  </si>
+  <si>
+    <t>83/8092</t>
+  </si>
+  <si>
+    <t>141/8092</t>
+  </si>
+  <si>
+    <t>31/8092</t>
+  </si>
+  <si>
+    <t>128/8092</t>
+  </si>
+  <si>
+    <t>136/8092</t>
+  </si>
+  <si>
+    <t>270/8092</t>
+  </si>
+  <si>
+    <t>186/8092</t>
+  </si>
+  <si>
+    <t>64/8092</t>
+  </si>
+  <si>
+    <t>121/8092</t>
+  </si>
+  <si>
+    <t>98/8092</t>
+  </si>
+  <si>
+    <t>62/8092</t>
+  </si>
+  <si>
+    <t>72/8092</t>
+  </si>
+  <si>
+    <t>48/8092</t>
+  </si>
+  <si>
+    <t>68/8092</t>
+  </si>
+  <si>
+    <t>19/8092</t>
+  </si>
+  <si>
+    <t>58/8092</t>
+  </si>
+  <si>
+    <t>217/8092</t>
+  </si>
+  <si>
+    <t>109/8092</t>
   </si>
   <si>
     <t>12858/66925/66108/11950/69875/68198/66043/66144/68349/11944/11951/11966/67680/84682/11972/226646/17991/12864/67126/54405/12867/228033/54411/11973/11975/66414/67895/75406/66594/69802/73834/67530/66945/407785/17993/66335/66218/67130/66445/68194/11957/28080/68202/78330/72900/11984/20463/66237/67264/11947/11946/12869/22273/11949/227197/66495/67273/68375/66046/74776/595136/17992/68197/12862/70316/67003/104130/12857/12866/114143/108664/66916/71679/66091/12868/67184/110323/66377/17995/66694/57423/66290/76252/226139/68342/407790/12861/66416/70383/22272/12856/78174/11958/333182/66052/66152/225887/12859/67942/66576/17716/17717/17708/17719/17722/17711/230075/12865</t>
@@ -753,7 +759,7 @@
     <t>19182/19185/19172/21762/19170/19166/22123/69077/19175/19184/66997/26443/19179/66413/67089/19173/19186/16913/23997/70247/19177/59029/26444/26445/19181/66537/57296/23996/26440/19171/26441/228769/56436/17463/20422/19167/26442/26446/621823/19192/19188/16912</t>
   </si>
   <si>
-    <t>235339/66925/15277/15929/13807/78920/12974/67680/18648/11676/17448/216019/18641/17449/18293/20425/13382/56421/104776/66945/68263/14661/239017/21881/13885/20916/11429/76282/19733/21991/107272/18563/14718/93747/97212/14194/170718/11532/230163/110208/100678/11409/257635/231691/269951/109264/11674/18597/14381/19139/14719/108682/66171/110446/67834/18746/66904/18642/73724/225913/68133/14751/15275/227095/67078/226265/75731/56451/14433/66052/433182/353204/13808/20917/18655/11364/13806</t>
+    <t>235339/66925/15277/15929/13807/78920/12974/67680/18648/11676/17448/216019/18641/17449/18293/20425/13382/56421/104776/66945/68263/14661/239017/21881/13885/20916/11429/76282/19733/21991/107272/18563/14718/93747/97212/14194/170718/11532/230163/110208/100678/11409/257635/231691/269951/109264/11674/18597/14381/19139/14719/108682/66171/110446/67834/18746/66904/18642/73724/225913/68133/14751/15275/227095/67078/75731/56451/14433/66052/433182/353204/13808/20917/18655/11364/13806</t>
   </si>
   <si>
     <t>15277/216558/109754/216019/14635/15212/29858/22122/54128/15211/72157/72017/107652/227620/94181/50798/230582/74246/22235/12764/19703/110119/266690/234730/56174/14430/14751/245847/15275/54342/218138/320635/109785/67883/331026</t>
@@ -765,12 +771,12 @@
     <t>209446/52440/12048/94044/18412/56486/66437/22187/56480/26420/12177/50873/13001/19697/72018/15461/214952/71648/13555/20779/67414/68943/66169/170731/72542/22241/57436/93739/56208/11793/213948/20130/233204/17684/228361/11911/13000/26414/56484/22059/12176/19349</t>
   </si>
   <si>
-    <t>15929/13807/12974/18648/11676/71776/18641/20425/11847/56421/21881/11429/76282/66194/109652/21991/12411/107272/18563/56454/14718/109900/14645/170718/107869/230163/100678/257635/231691/12035/269951/11674/12036/19139/14719/108682/67834/18746/18642/108645/226265/232087/14433/433182/353204/13808/18655/13806/11898</t>
-  </si>
-  <si>
     <t>235339/66925/15929/78920/12974/67680/17448/17449/18293/13382/66945/68263/239017/20916/11429/18563/14194/170718/269951/18597/67834/74551/56451/66052/20917</t>
   </si>
   <si>
+    <t>15929/13807/12974/18648/11676/71776/18641/20425/11847/56421/21881/11429/76282/66194/109652/21991/12411/107272/18563/56454/14718/109900/14645/170718/107869/230163/100678/257635/231691/12035/269951/11674/12036/19139/14719/108682/67834/18746/18642/108645/232087/14433/433182/353204/13808/18655/13806/11898</t>
+  </si>
+  <si>
     <t>14667/27419/11767/11768/13423/19156/13034/94178/11769/27029/17159/83429/18010/17113/13033/11764/11972/50917/54397/64138/19025/12514/54411/11975/11776/17775/260302/11782/19141/15212/13030/114128/17939/18174/27426/11984/15211/12512/110006/14387/18173/14466/12757/16792/19063/71665/56325/58911/74105/12751/11605/108012/11593/64933/11886/192654/106039/114143/15932/108664/75612/214505/20597/52120/13040/12091/67300/74325/11775/11778/56464</t>
   </si>
   <si>
@@ -792,12 +798,12 @@
     <t>67065/22245/66420/18973/68106/69920/22271/28071/22169/50773/245841/78929/72962/22247/56520/18969/69745/76952/19075/76025/19076/21915/171567/76654/110074/20017/74414/69870/64424/59001/66401/72269/231329/20018/107569/66979/67967/55936/320685/56749/20021/54369/103850/69833/12497/99586/70428/57813/67486/66136/18102/66491/18971/20022/215446/66422/20016/67710</t>
   </si>
   <si>
-    <t>235339/15277/13807/18648/11676/11670/216019/18641/13382/56421/68263/21991/17330/72157/56752/11532/230163/58810/11669/16832/11674/18597/18746/18642/68401/319625/72535/14751/15275/74551/226265/110695/14433/433182/353204/13808/14447/18655/16828/13806/621603</t>
-  </si>
-  <si>
     <t>67065/56463/11651/19182/20375/54194/26400/19698/20848/11652/66420/15507/18747/19185/21762/15482/15184/15481/14991/22123/69077/54401/26397/22629/69920/56480/26420/26399/19184/66997/22627/53859/245841/66354/19179/20963/66413/67089/22631/66513/78929/29857/252870/16155/12575/18037/19106/13001/240095/19697/23997/70247/12902/59029/22030/22034/74414/69870/229906/16451/14191/19181/231329/19384/15467/20018/57296/18036/23996/20021/18709/16154/74769/69833/26398/234779/70428/67486/15015/15894/69253/66491/56436/17463/19664/20022/18707/215446/17096/20422/13000/26414/22628/19094/26416/15042/15039/22059/15018/14972/20016/15040/15007/67710/667977/14963/15019/14964/15024/15013</t>
   </si>
   <si>
+    <t>235339/15277/13807/18648/11676/11670/216019/18641/13382/56421/68263/21991/17330/72157/56752/11532/230163/58810/11669/16832/11674/18597/18746/18642/68401/319625/72535/14751/15275/74551/110695/14433/433182/353204/13808/14447/18655/16828/13806/621603</t>
+  </si>
+  <si>
     <t>13163/14814/53333/12028/12122/641376/12048/26397/380684/26399/14813/18040/18039/19057/67819/29857/20655/19132/12015/12364/12362/14810/21938/12371/21937/19058/12460/19094/26416/22059/13063/14775/26408</t>
   </si>
   <si>
@@ -846,21 +852,21 @@
     <t>15368/22335/17254/13058/22334/213053/18174/14319/433256/20229/66734/14854/26570/14630/74244/67443/14629/22041/11793/14325/23983/18521/22059/69215/625249/19122</t>
   </si>
   <si>
-    <t>15277/21857/11651/20848/11652/13807/26395/15368/228026/13058/15979/216019/17347/18641/68263/12325/56438/15980/12575/71745/19697/170768/16194/13684/20104/20525/17346/14254/17000/11674/18597/11601/13685/18709/112405/74769/22041/234779/26396/112407/15275/18707/226265/18751/67673/14433/12323/112406/433182/13808/18655/26417/16828/26413/13806/67923</t>
-  </si>
-  <si>
     <t>14421/20442/15212/15211/225742/50935/11416/20444/12091/20454/54218/20448</t>
   </si>
   <si>
+    <t>15277/21857/11651/20848/11652/13807/26395/15368/228026/13058/15979/216019/17347/18641/68263/12325/56438/15980/12575/71745/19697/170768/16194/13684/20104/20525/17346/14254/17000/11674/18597/11601/13685/18709/112405/74769/22041/234779/26396/112407/15275/18707/18751/67673/14433/12323/112406/433182/13808/18655/26417/16828/26413/13806/67923</t>
+  </si>
+  <si>
     <t>14871/103140/110175/14866/68312/23887/14598/20810/56615/18263/14778/75475/14873/14859/66447/207182/14854/14865/14630/110208/76263/68396/269951/14381/14782/14860/14629/14872/66116/14862/14870/14775/14867/20603/625249</t>
   </si>
   <si>
+    <t>224824/208982/235674/170789/19193/103737/56535/11430/23986/93732/13850/28200/17117/93734/20655/22436/15488/54683/433256/212503/111175/16922/12908/18633/26458/18632/20280/18477/56273/668173/80911/19301/76263/269951/18631/67528/234384/113868/26378/13142/51798/70503/74043/56690/17527</t>
+  </si>
+  <si>
     <t>15277/11836/12313/11651/16890/14936/11652/19047/26395/23921/18747/19062/241113/20528/12315/106628/216233/216019/17347/216148/26420/20787/19084/53413/110095/12015/15461/74370/19085/64930/19246/13684/20104/17346/108099/19744/18762/19079/68961/13685/18709/75600/74769/19087/19309/110078/18679/68401/26396/12314/15275/12703/108097/54646/18707/19045/74551/100705/20416/56458/26414/105787/12702/14251/14784/14252/26417/26413/53412/19082</t>
   </si>
   <si>
-    <t>224824/208982/235674/170789/19193/103737/56535/11430/23986/93732/13850/28200/17117/93734/20655/22436/15488/54683/433256/212503/111175/16922/12908/18633/26458/18632/20280/18477/56273/668173/80911/19301/76263/269951/18631/67528/234384/113868/26378/13142/51798/70503/74043/56690/17527</t>
-  </si>
-  <si>
     <t>68275/17216/18973/17217/106344/19718/14156/18969/69745/68209/19075/19076/59001/19891/72151/17220/66979/67967/69263/18971/69724/16881</t>
   </si>
   <si>
@@ -891,12 +897,12 @@
     <t>18053/12313/11651/26400/20111/12028/11652/17179/26395/23921/19165/17164/12315/73914/216148/26420/22627/12325/18753/29857/20112/18037/19697/12015/192662/94275/15461/22034/18211/22062/11857/18036/20399/18709/75600/74769/234779/26396/72843/12314/18707/11911/20416/19247/12070/26414/12064/56484/19094/26416/12323/23938/22059/266632/14784/108960/26417/26413/26408/14570</t>
   </si>
   <si>
+    <t>56077/12313/233011/19062/18799/170749/108083/12315/72469/271424/114663/18719/74055/84095/13139/117150/212111/269180/18802/16331/18718/64436/228550/55980/74596/16438/97287/52858/18709/77116/75600/74769/27399/76500/327655/225326/234779/74302/170835/18717/219024/12314/320404/107650/18707/18796/16440/18751/217837/110911</t>
+  </si>
+  <si>
     <t>11772/66144/108124/11966/232910/11972/11973/11975/73834/66335/11773/11984/66237/20910/13429/20614/12757/56216/19339/114143/12889/108664/18195/71770/110877/22348/66290/76252/20908/67300/74325/11771/72961/20508</t>
   </si>
   <si>
-    <t>56077/12313/233011/19062/18799/170749/108083/12315/72469/271424/114663/18719/74055/84095/13139/117150/212111/269180/18802/16331/18718/64436/228550/55980/74596/16438/97287/52858/18709/77116/75600/74769/27399/76500/327655/225326/234779/74302/170835/18717/219024/12314/320404/107650/18707/18796/16440/18751/217837/110911</t>
-  </si>
-  <si>
     <t>233011/19062/18799/170749/108083/72469/104776/21991/114663/18719/17330/74055/84095/117150/212111/269180/18802/16331/18718/64436/228550/55980/269615/97287/52858/77116/74769/225326/234779/74302/170835/18717/320404/107650/18707/18796/227733/217837</t>
   </si>
   <si>
@@ -909,6 +915,9 @@
     <t>15929/12974/11429/76282/109652/14718/170718/12035/269951/12036/14719/108682/67834</t>
   </si>
   <si>
+    <t>270076/78070/235674/11370/11430/23986/13177/12894/433256/93747/97212/11363/56752/11532/12896/80911/11669/11409/66885/110446/94180/72535/113868/52538/110695/231086/11364</t>
+  </si>
+  <si>
     <t>11651/11652/26395/15507/17164/170758/216148/19057/29857/12015/15461/18019/20779/12371/18709/74769/19225/102626/19354/19058/234779/26396/18707/329502/18751/19094/26416/56632/20698/26417/26413</t>
   </si>
   <si>
@@ -981,12 +990,12 @@
     <t>mmu04010</t>
   </si>
   <si>
-    <t>mmu05225</t>
-  </si>
-  <si>
     <t>mmu04724</t>
   </si>
   <si>
+    <t>mmu05215</t>
+  </si>
+  <si>
     <t>mmu04012</t>
   </si>
   <si>
@@ -1002,24 +1011,21 @@
     <t>mmu04340</t>
   </si>
   <si>
+    <t>mmu04014</t>
+  </si>
+  <si>
     <t>mmu04110</t>
   </si>
   <si>
-    <t>mmu04014</t>
-  </si>
-  <si>
-    <t>mmu05215</t>
-  </si>
-  <si>
     <t>mmu01522</t>
   </si>
   <si>
+    <t>mmu04530</t>
+  </si>
+  <si>
     <t>mmu05217</t>
   </si>
   <si>
-    <t>mmu04530</t>
-  </si>
-  <si>
     <t>mmu05414</t>
   </si>
   <si>
@@ -1053,6 +1059,9 @@
     <t>mmu04725</t>
   </si>
   <si>
+    <t>mmu05211</t>
+  </si>
+  <si>
     <t>mmu01521</t>
   </si>
   <si>
@@ -1071,9 +1080,6 @@
     <t>mmu00100</t>
   </si>
   <si>
-    <t>mmu05211</t>
-  </si>
-  <si>
     <t>mmu05210</t>
   </si>
   <si>
@@ -1215,15 +1221,15 @@
     <t>mmu04330</t>
   </si>
   <si>
+    <t>mmu03018</t>
+  </si>
+  <si>
     <t>mmu05145</t>
   </si>
   <si>
     <t>mmu00564</t>
   </si>
   <si>
-    <t>mmu03018</t>
-  </si>
-  <si>
     <t>mmu00062</t>
   </si>
   <si>
@@ -1296,12 +1302,12 @@
     <t>MAPK signaling pathway</t>
   </si>
   <si>
-    <t>Hepatocellular carcinoma</t>
-  </si>
-  <si>
     <t>Glutamatergic synapse</t>
   </si>
   <si>
+    <t>Prostate cancer</t>
+  </si>
+  <si>
     <t>ErbB signaling pathway</t>
   </si>
   <si>
@@ -1317,24 +1323,21 @@
     <t>Hedgehog signaling pathway</t>
   </si>
   <si>
+    <t>Ras signaling pathway</t>
+  </si>
+  <si>
     <t>Cell cycle</t>
   </si>
   <si>
-    <t>Ras signaling pathway</t>
-  </si>
-  <si>
-    <t>Prostate cancer</t>
-  </si>
-  <si>
     <t>Endocrine resistance</t>
   </si>
   <si>
+    <t>Tight junction</t>
+  </si>
+  <si>
     <t>Basal cell carcinoma</t>
   </si>
   <si>
-    <t>Tight junction</t>
-  </si>
-  <si>
     <t>Dilated cardiomyopathy (DCM)</t>
   </si>
   <si>
@@ -1368,6 +1371,9 @@
     <t>Cholinergic synapse</t>
   </si>
   <si>
+    <t>Renal cell carcinoma</t>
+  </si>
+  <si>
     <t>EGFR tyrosine kinase inhibitor resistance</t>
   </si>
   <si>
@@ -1386,9 +1392,6 @@
     <t>Steroid biosynthesis</t>
   </si>
   <si>
-    <t>Renal cell carcinoma</t>
-  </si>
-  <si>
     <t>Colorectal cancer</t>
   </si>
   <si>
@@ -1530,15 +1533,15 @@
     <t>Notch signaling pathway</t>
   </si>
   <si>
+    <t>RNA degradation</t>
+  </si>
+  <si>
     <t>Toxoplasmosis</t>
   </si>
   <si>
     <t>Glycerophospholipid metabolism</t>
   </si>
   <si>
-    <t>RNA degradation</t>
-  </si>
-  <si>
     <t>Fatty acid elongation</t>
   </si>
   <si>
@@ -1551,379 +1554,376 @@
     <t>Serotonergic synapse</t>
   </si>
   <si>
-    <t>215/2474</t>
-  </si>
-  <si>
-    <t>114/2474</t>
-  </si>
-  <si>
-    <t>125/2474</t>
-  </si>
-  <si>
-    <t>63/2474</t>
-  </si>
-  <si>
-    <t>181/2474</t>
-  </si>
-  <si>
-    <t>167/2474</t>
-  </si>
-  <si>
-    <t>51/2474</t>
-  </si>
-  <si>
-    <t>110/2474</t>
-  </si>
-  <si>
-    <t>87/2474</t>
-  </si>
-  <si>
-    <t>56/2474</t>
-  </si>
-  <si>
-    <t>105/2474</t>
-  </si>
-  <si>
-    <t>78/2474</t>
-  </si>
-  <si>
-    <t>104/2474</t>
-  </si>
-  <si>
-    <t>73/2474</t>
-  </si>
-  <si>
-    <t>96/2474</t>
-  </si>
-  <si>
-    <t>76/2474</t>
-  </si>
-  <si>
-    <t>44/2474</t>
-  </si>
-  <si>
-    <t>77/2474</t>
-  </si>
-  <si>
-    <t>116/2474</t>
-  </si>
-  <si>
-    <t>84/2474</t>
-  </si>
-  <si>
-    <t>61/2474</t>
-  </si>
-  <si>
-    <t>48/2474</t>
-  </si>
-  <si>
-    <t>54/2474</t>
-  </si>
-  <si>
-    <t>124/2474</t>
-  </si>
-  <si>
-    <t>36/2474</t>
-  </si>
-  <si>
-    <t>29/2474</t>
-  </si>
-  <si>
-    <t>103/2474</t>
-  </si>
-  <si>
-    <t>52/2474</t>
-  </si>
-  <si>
-    <t>50/2474</t>
-  </si>
-  <si>
-    <t>37/2474</t>
-  </si>
-  <si>
-    <t>79/2474</t>
-  </si>
-  <si>
-    <t>65/2474</t>
-  </si>
-  <si>
-    <t>42/2474</t>
-  </si>
-  <si>
-    <t>64/2474</t>
-  </si>
-  <si>
-    <t>115/2474</t>
-  </si>
-  <si>
-    <t>47/2474</t>
-  </si>
-  <si>
-    <t>33/2474</t>
-  </si>
-  <si>
-    <t>55/2474</t>
-  </si>
-  <si>
-    <t>41/2474</t>
-  </si>
-  <si>
-    <t>43/2474</t>
-  </si>
-  <si>
-    <t>40/2474</t>
-  </si>
-  <si>
-    <t>14/2474</t>
-  </si>
-  <si>
-    <t>38/2474</t>
-  </si>
-  <si>
-    <t>35/2474</t>
-  </si>
-  <si>
-    <t>57/2474</t>
-  </si>
-  <si>
-    <t>46/2474</t>
-  </si>
-  <si>
-    <t>17/2474</t>
-  </si>
-  <si>
-    <t>15/2474</t>
-  </si>
-  <si>
-    <t>67/2474</t>
-  </si>
-  <si>
-    <t>59/2474</t>
-  </si>
-  <si>
-    <t>53/2474</t>
-  </si>
-  <si>
-    <t>25/2474</t>
-  </si>
-  <si>
-    <t>32/2474</t>
-  </si>
-  <si>
-    <t>22/2474</t>
-  </si>
-  <si>
-    <t>30/2474</t>
-  </si>
-  <si>
-    <t>39/2474</t>
-  </si>
-  <si>
-    <t>21/2474</t>
-  </si>
-  <si>
-    <t>24/2474</t>
-  </si>
-  <si>
-    <t>45/2474</t>
-  </si>
-  <si>
-    <t>26/2474</t>
-  </si>
-  <si>
-    <t>88/2474</t>
-  </si>
-  <si>
-    <t>66/2474</t>
-  </si>
-  <si>
-    <t>23/2474</t>
-  </si>
-  <si>
-    <t>13/2474</t>
-  </si>
-  <si>
-    <t>34/2474</t>
-  </si>
-  <si>
-    <t>394/8114</t>
-  </si>
-  <si>
-    <t>199/8114</t>
-  </si>
-  <si>
-    <t>83/8114</t>
-  </si>
-  <si>
-    <t>350/8114</t>
-  </si>
-  <si>
-    <t>346/8114</t>
-  </si>
-  <si>
-    <t>206/8114</t>
-  </si>
-  <si>
-    <t>154/8114</t>
-  </si>
-  <si>
-    <t>92/8114</t>
-  </si>
-  <si>
-    <t>213/8114</t>
-  </si>
-  <si>
-    <t>146/8114</t>
-  </si>
-  <si>
-    <t>214/8114</t>
-  </si>
-  <si>
-    <t>137/8114</t>
-  </si>
-  <si>
-    <t>197/8114</t>
-  </si>
-  <si>
-    <t>147/8114</t>
-  </si>
-  <si>
-    <t>99/8114</t>
-  </si>
-  <si>
-    <t>252/8114</t>
-  </si>
-  <si>
-    <t>170/8114</t>
-  </si>
-  <si>
-    <t>114/8114</t>
-  </si>
-  <si>
-    <t>85/8114</t>
-  </si>
-  <si>
-    <t>100/8114</t>
-  </si>
-  <si>
-    <t>282/8114</t>
-  </si>
-  <si>
-    <t>59/8114</t>
-  </si>
-  <si>
-    <t>228/8114</t>
-  </si>
-  <si>
-    <t>97/8114</t>
-  </si>
-  <si>
-    <t>93/8114</t>
-  </si>
-  <si>
-    <t>89/8114</t>
-  </si>
-  <si>
-    <t>132/8114</t>
-  </si>
-  <si>
-    <t>76/8114</t>
-  </si>
-  <si>
-    <t>183/8114</t>
-  </si>
-  <si>
-    <t>131/8114</t>
-  </si>
-  <si>
-    <t>90/8114</t>
-  </si>
-  <si>
-    <t>168/8114</t>
-  </si>
-  <si>
-    <t>113/8114</t>
-  </si>
-  <si>
-    <t>80/8114</t>
-  </si>
-  <si>
-    <t>143/8114</t>
-  </si>
-  <si>
-    <t>86/8114</t>
-  </si>
-  <si>
-    <t>69/8114</t>
-  </si>
-  <si>
-    <t>74/8114</t>
-  </si>
-  <si>
-    <t>115/8114</t>
-  </si>
-  <si>
-    <t>139/8114</t>
-  </si>
-  <si>
-    <t>75/8114</t>
-  </si>
-  <si>
-    <t>122/8114</t>
-  </si>
-  <si>
-    <t>96/8114</t>
-  </si>
-  <si>
-    <t>26/8114</t>
-  </si>
-  <si>
-    <t>22/8114</t>
-  </si>
-  <si>
-    <t>153/8114</t>
-  </si>
-  <si>
-    <t>71/8114</t>
-  </si>
-  <si>
-    <t>66/8114</t>
-  </si>
-  <si>
-    <t>87/8114</t>
-  </si>
-  <si>
-    <t>285/8114</t>
-  </si>
-  <si>
-    <t>23/8114</t>
-  </si>
-  <si>
-    <t>108/8114</t>
-  </si>
-  <si>
-    <t>40/8114</t>
-  </si>
-  <si>
-    <t>88/8114</t>
-  </si>
-  <si>
-    <t>73/8114</t>
-  </si>
-  <si>
-    <t>55/8114</t>
-  </si>
-  <si>
-    <t>231/8114</t>
-  </si>
-  <si>
-    <t>27/8114</t>
-  </si>
-  <si>
-    <t>126/8114</t>
-  </si>
-  <si>
-    <t>129/8114</t>
+    <t>215/2463</t>
+  </si>
+  <si>
+    <t>114/2463</t>
+  </si>
+  <si>
+    <t>125/2463</t>
+  </si>
+  <si>
+    <t>63/2463</t>
+  </si>
+  <si>
+    <t>181/2463</t>
+  </si>
+  <si>
+    <t>167/2463</t>
+  </si>
+  <si>
+    <t>51/2463</t>
+  </si>
+  <si>
+    <t>110/2463</t>
+  </si>
+  <si>
+    <t>87/2463</t>
+  </si>
+  <si>
+    <t>56/2463</t>
+  </si>
+  <si>
+    <t>105/2463</t>
+  </si>
+  <si>
+    <t>78/2463</t>
+  </si>
+  <si>
+    <t>104/2463</t>
+  </si>
+  <si>
+    <t>73/2463</t>
+  </si>
+  <si>
+    <t>96/2463</t>
+  </si>
+  <si>
+    <t>76/2463</t>
+  </si>
+  <si>
+    <t>44/2463</t>
+  </si>
+  <si>
+    <t>77/2463</t>
+  </si>
+  <si>
+    <t>116/2463</t>
+  </si>
+  <si>
+    <t>61/2463</t>
+  </si>
+  <si>
+    <t>49/2463</t>
+  </si>
+  <si>
+    <t>48/2463</t>
+  </si>
+  <si>
+    <t>54/2463</t>
+  </si>
+  <si>
+    <t>124/2463</t>
+  </si>
+  <si>
+    <t>36/2463</t>
+  </si>
+  <si>
+    <t>29/2463</t>
+  </si>
+  <si>
+    <t>103/2463</t>
+  </si>
+  <si>
+    <t>50/2463</t>
+  </si>
+  <si>
+    <t>79/2463</t>
+  </si>
+  <si>
+    <t>37/2463</t>
+  </si>
+  <si>
+    <t>65/2463</t>
+  </si>
+  <si>
+    <t>42/2463</t>
+  </si>
+  <si>
+    <t>84/2463</t>
+  </si>
+  <si>
+    <t>64/2463</t>
+  </si>
+  <si>
+    <t>115/2463</t>
+  </si>
+  <si>
+    <t>47/2463</t>
+  </si>
+  <si>
+    <t>33/2463</t>
+  </si>
+  <si>
+    <t>55/2463</t>
+  </si>
+  <si>
+    <t>41/2463</t>
+  </si>
+  <si>
+    <t>43/2463</t>
+  </si>
+  <si>
+    <t>40/2463</t>
+  </si>
+  <si>
+    <t>14/2463</t>
+  </si>
+  <si>
+    <t>38/2463</t>
+  </si>
+  <si>
+    <t>35/2463</t>
+  </si>
+  <si>
+    <t>57/2463</t>
+  </si>
+  <si>
+    <t>46/2463</t>
+  </si>
+  <si>
+    <t>17/2463</t>
+  </si>
+  <si>
+    <t>15/2463</t>
+  </si>
+  <si>
+    <t>67/2463</t>
+  </si>
+  <si>
+    <t>59/2463</t>
+  </si>
+  <si>
+    <t>53/2463</t>
+  </si>
+  <si>
+    <t>25/2463</t>
+  </si>
+  <si>
+    <t>32/2463</t>
+  </si>
+  <si>
+    <t>22/2463</t>
+  </si>
+  <si>
+    <t>30/2463</t>
+  </si>
+  <si>
+    <t>39/2463</t>
+  </si>
+  <si>
+    <t>21/2463</t>
+  </si>
+  <si>
+    <t>24/2463</t>
+  </si>
+  <si>
+    <t>45/2463</t>
+  </si>
+  <si>
+    <t>26/2463</t>
+  </si>
+  <si>
+    <t>88/2463</t>
+  </si>
+  <si>
+    <t>66/2463</t>
+  </si>
+  <si>
+    <t>23/2463</t>
+  </si>
+  <si>
+    <t>13/2463</t>
+  </si>
+  <si>
+    <t>34/2463</t>
+  </si>
+  <si>
+    <t>52/2463</t>
+  </si>
+  <si>
+    <t>394/8092</t>
+  </si>
+  <si>
+    <t>199/8092</t>
+  </si>
+  <si>
+    <t>350/8092</t>
+  </si>
+  <si>
+    <t>346/8092</t>
+  </si>
+  <si>
+    <t>206/8092</t>
+  </si>
+  <si>
+    <t>154/8092</t>
+  </si>
+  <si>
+    <t>92/8092</t>
+  </si>
+  <si>
+    <t>213/8092</t>
+  </si>
+  <si>
+    <t>146/8092</t>
+  </si>
+  <si>
+    <t>214/8092</t>
+  </si>
+  <si>
+    <t>137/8092</t>
+  </si>
+  <si>
+    <t>197/8092</t>
+  </si>
+  <si>
+    <t>147/8092</t>
+  </si>
+  <si>
+    <t>99/8092</t>
+  </si>
+  <si>
+    <t>252/8092</t>
+  </si>
+  <si>
+    <t>114/8092</t>
+  </si>
+  <si>
+    <t>87/8092</t>
+  </si>
+  <si>
+    <t>85/8092</t>
+  </si>
+  <si>
+    <t>100/8092</t>
+  </si>
+  <si>
+    <t>282/8092</t>
+  </si>
+  <si>
+    <t>59/8092</t>
+  </si>
+  <si>
+    <t>228/8092</t>
+  </si>
+  <si>
+    <t>93/8092</t>
+  </si>
+  <si>
+    <t>89/8092</t>
+  </si>
+  <si>
+    <t>132/8092</t>
+  </si>
+  <si>
+    <t>183/8092</t>
+  </si>
+  <si>
+    <t>131/8092</t>
+  </si>
+  <si>
+    <t>90/8092</t>
+  </si>
+  <si>
+    <t>168/8092</t>
+  </si>
+  <si>
+    <t>113/8092</t>
+  </si>
+  <si>
+    <t>80/8092</t>
+  </si>
+  <si>
+    <t>143/8092</t>
+  </si>
+  <si>
+    <t>86/8092</t>
+  </si>
+  <si>
+    <t>74/8092</t>
+  </si>
+  <si>
+    <t>115/8092</t>
+  </si>
+  <si>
+    <t>139/8092</t>
+  </si>
+  <si>
+    <t>75/8092</t>
+  </si>
+  <si>
+    <t>122/8092</t>
+  </si>
+  <si>
+    <t>96/8092</t>
+  </si>
+  <si>
+    <t>26/8092</t>
+  </si>
+  <si>
+    <t>22/8092</t>
+  </si>
+  <si>
+    <t>153/8092</t>
+  </si>
+  <si>
+    <t>71/8092</t>
+  </si>
+  <si>
+    <t>84/8092</t>
+  </si>
+  <si>
+    <t>285/8092</t>
+  </si>
+  <si>
+    <t>23/8092</t>
+  </si>
+  <si>
+    <t>108/8092</t>
+  </si>
+  <si>
+    <t>40/8092</t>
+  </si>
+  <si>
+    <t>88/8092</t>
+  </si>
+  <si>
+    <t>73/8092</t>
+  </si>
+  <si>
+    <t>106/8092</t>
+  </si>
+  <si>
+    <t>55/8092</t>
+  </si>
+  <si>
+    <t>231/8092</t>
+  </si>
+  <si>
+    <t>82/8092</t>
+  </si>
+  <si>
+    <t>97/8092</t>
+  </si>
+  <si>
+    <t>27/8092</t>
+  </si>
+  <si>
+    <t>126/8092</t>
+  </si>
+  <si>
+    <t>129/8092</t>
   </si>
   <si>
     <t>22415/216795/12006/14673/12550/110157/21414/16480/319757/19353/19015/109880/16777/12576/13544/16151/18749/17688/16001/11515/16590/11789/108989/12929/12395/12540/12567/12387/21812/11848/14365/56044/17295/19211/17686/11863/16398/16776/11864/13557/18803/22032/218772/12928/58231/242705/19216/23797/15182/16775/16773/17311/22027/16000/13649/23805/17246/432530/19878/14674/18126/13543/20851/18035/15251/22031/14706/14634/69635/12159/26419/22418/19645/13618/104110/14368/17869/11514/12914/14083/208650/21787/56637/224129/11512/22339/13819/20662/19877/16774/17128/17126/18596/14682/18797/21416/12675/18034/24069/12566/17344/14169/16412/11798/12370/14268/226519/16782/19730/23928/11350/22029/16410/16403/14178/19419/12156/14683/18706/14696/14013/22414/18176/59069/13645/18033/12448/19207/18710/433759/15234/56717/18595/93735/21802/22421/16653/233046/14183/14082/14168/94216/12830/12826/12827/22341/16150/13617/12367/17390/53978/23871/13143/17350/66066/16772/22420/67168/22346/12402/20663/17342/14701/65086/22417/14370/18854/12385/14700/14745/21808/18798/19218/12571/72993/16801/18708/14702/14362/14367/12767/14708/14633/14366/78134/14065/57265/16576/18750/18795/16476/16779/27401/328572/21415/27057/12043/11797/14677/12982/69632/13176/216033/20315/13866/12386/15245/12829/381810/12443/240168/12579/18752/12828/93897</t>
@@ -1986,12 +1986,12 @@
     <t>14673/110157/23939/19353/109880/12297/12290/12287/16151/18749/17260/12929/12540/21812/13712/56808/20807/68652/12289/216965/18099/12298/12928/58231/17762/12300/23797/13649/19279/26406/18015/54377/12291/73086/218397/19418/26401/19056/26419/56274/17869/239556/224105/15370/58226/19252/20662/225028/26405/18596/12675/18034/286940/14169/67071/26921/13714/11909/14178/12531/19419/13537/14013/18176/18049/13645/19055/18033/26409/18595/17165/70686/16653/233046/14183/14168/110651/192176/75590/16150/12367/18021/114713/17532/18018/71751/12286/20663/14701/26411/18218/21808/63953/12293/140723/319734/18750/12288/215449/16476/235584/18212/66922/18783/15512/381921/19043/330177/76089/68794/109905/240168/18752/15511/193740/211429</t>
   </si>
   <si>
-    <t>22415/216795/12006/110157/21414/109880/13544/16001/11789/12567/12387/21812/93760/14365/17295/13712/19211/18024/13557/18803/242705/23797/13649/23805/72508/13543/20418/21752/27015/22418/19645/14368/17869/56637/83797/72057/20662/17128/17126/93687/58988/67155/21416/68214/18706/56456/22414/18176/18710/15234/56717/93735/21802/22421/16974/16653/26992/14388/20588/22420/77044/20663/271849/22417/14370/57376/21808/12571/14863/18708/66923/14362/14367/16002/14366/57265/18750/21415/12018/239985/12443/27412/18752/93897</t>
-  </si>
-  <si>
     <t>14807/53623/224997/108069/18749/20511/20512/11515/26556/12289/14816/216227/432530/14799/18806/14706/19056/104110/11514/58234/224129/14805/11512/105727/14823/14682/18797/26557/14802/14660/14683/14696/18805/19055/14812/16439/140919/66066/22063/14800/12286/14701/210274/14700/243961/242443/18798/320129/14702/14708/108071/18750/18795/12288/14806/18783/108073/14677/14811/18752/211429</t>
   </si>
   <si>
+    <t>110157/21414/109880/12576/16151/16001/12387/19211/13557/242705/23797/22027/16000/13649/17246/18035/19645/12914/56637/18607/20662/18596/21416/12675/12566/12912/26427/18706/18176/13645/54635/18033/12448/18710/56717/18595/21802/16653/14183/16150/20663/208647/18708/231991/328572/21415/12043/13866/12443</t>
+  </si>
+  <si>
     <t>110157/109880/12576/12929/13712/18803/12928/13867/23797/13649/72508/20851/20418/26419/17869/14083/208650/224105/56637/20662/15200/12322/58988/11352/11350/18706/18176/13645/18710/56717/21802/16653/70584/18481/14388/12402/20663/271849/241656/18183/18708/18750/16476/108058/13869/13866/17974/18752</t>
   </si>
   <si>
@@ -2007,24 +2007,21 @@
     <t>12444/319757/26554/18749/66313/16568/14634/56637/13363/93687/12234/24069/76857/14725/19207/59056/214897/57810/75788/240888/320129/14633/16576/14451/12043/20747/15245/12443/70425</t>
   </si>
   <si>
+    <t>110157/19353/21844/85031/13637/16151/18749/16001/16337/16590/21687/13836/12540/11848/56044/17295/13712/12977/18803/271457/58231/16706/23797/17311/16000/13649/19696/18015/18806/14706/66482/20418/218397/19418/26419/11600/224105/22339/20662/18596/225870/56392/12675/14169/11352/19730/11350/14178/19419/11602/18706/14696/18805/18176/18049/13645/54635/18033/18710/15234/18595/14812/16653/233046/70584/14183/14168/18481/19414/22341/16150/14388/23871/114713/17532/66066/20663/271849/14701/14700/241656/19732/18708/217944/53357/54601/14702/14708/13640/18750/215449/66922/18783/14811/333050/16542/240057/17356/109905/226525/240168/18752/211429</t>
+  </si>
+  <si>
     <t>12444/12576/17218/107995/12567/17222/13557/23834/242705/15182/12534/17246/217232/19645/19357/17869/12914/19090/56637/52563/17128/17126/13006/12566/20843/17219/26428/11350/12531/18538/13559/19650/12428/12448/12580/433759/12545/17120/56150/18817/19651/12442/245000/211586/218294/11920/20842/12577/22137/21781/21808/50793/12236/12571/24061/17215/27401/328572/105988/12572/12443/12579/22630</t>
   </si>
   <si>
-    <t>110157/19353/21844/85031/13637/16151/18749/16001/16337/16590/21687/13836/12540/11848/56044/17295/13712/12977/18803/271457/58231/16706/23797/17311/16000/13649/19696/18015/18806/14706/66482/20418/218397/19418/26419/11600/224105/22339/20662/18596/225870/56392/12675/14169/11352/19730/11350/14178/19419/11602/18706/14696/18805/18176/18049/13645/54635/18033/18710/15234/18595/14812/16653/233046/70584/14183/14168/18481/19414/22341/16150/14388/23871/114713/17532/66066/20663/271849/14701/14700/241656/19732/18708/217944/53357/54601/14702/14708/13640/18750/215449/66922/18783/14811/333050/16542/240057/17356/109905/226525/240168/18752/211429</t>
-  </si>
-  <si>
-    <t>110157/21414/109880/12576/16151/16001/12387/19211/13557/242705/23797/22027/16000/13649/17246/18035/19645/12914/56637/18607/21417/20662/18596/21416/12675/12566/12912/26427/18706/18176/13645/54635/18033/12448/18710/56717/18595/21802/16653/14183/16150/18791/20663/208647/13876/18708/231991/328572/21415/12043/13866/12443</t>
-  </si>
-  <si>
     <t>110157/20683/109880/12576/18749/16001/11515/12567/13388/13557/19014/20185/242705/23797/16000/13649/17246/432530/72508/20418/26419/19645/104110/11514/14083/224129/11512/20662/15200/58988/18128/16449/14683/18706/17979/18176/18129/12580/18710/56717/16653/17390/20663/271849/18131/18708/16476/12043/13866/12443</t>
   </si>
   <si>
+    <t>72058/19353/21844/17274/102098/18749/12540/12567/11848/18016/74094/75723/109711/12289/17880/66713/15525/16897/19878/77579/56217/218518/26401/26419/71978/17886/12737/105782/13383/67268/19877/83814/21873/16412/93742/18538/16800/17475/54357/108079/269643/73178/56449/21872/70497/17698/83964/19684/73699/17999/56332/231830/235442/192786/18417/18759/12638/12741/27494/58220/18754/14924/56173/72065/23859/16476/60595/93737/76089/13866/242653/98932/17356/109905/70737/12443/23828/22142/667772</t>
+  </si>
+  <si>
     <t>22415/216795/12006/21414/319757/13544/11789/12387/14365/23805/13543/14634/27015/12159/22418/14368/56637/21416/24069/12156/22414/19207/93735/22421/22420/22417/14370/14362/14367/14633/14366/57265/16576/21415/12018/15245/93897</t>
   </si>
   <si>
-    <t>72058/19353/21844/17274/102098/18749/12540/12567/11848/18016/74094/75723/109711/12289/17880/66713/15525/16897/19878/77579/56217/218518/26401/26419/71978/17886/12737/105782/13383/67268/19877/83814/21873/16412/93742/18538/16800/17475/54357/108079/269643/73178/56449/21872/70497/17698/83964/19684/73699/17999/56332/231830/235442/192786/18417/18759/12638/12741/27494/58220/18754/14924/56173/72065/23859/16476/60595/93737/76089/13866/242653/98932/17356/109905/70737/12443/23828/22142/667772</t>
-  </si>
-  <si>
     <t>16402/12297/18749/11515/56808/16398/12289/12298/12300/16773/16000/24052/432530/16416/54377/192897/20191/104110/11514/224129/11512/320910/16412/241226/16401/16410/16403/14683/59069/24051/11938/326618/319480/11554/21954/104099/21808/13138/12293/140723/17888/319734/109700/13405/12288/140781/20541/213119</t>
   </si>
   <si>
@@ -2061,6 +2058,9 @@
     <t>12287/18749/11515/16535/12289/23797/14360/432530/30955/14706/104110/11514/224129/11512/12322/14682/16452/18797/12912/26427/18706/14696/18176/226922/60613/18710/16653/16439/11441/66066/12286/108015/14701/12326/14700/208647/18798/12672/18708/16518/14702/16522/243764/12671/14708/18750/18795/12288/231991/108058/110862/12043/14677/213788/18752</t>
   </si>
   <si>
+    <t>110157/19353/109880/12929/12540/17295/11863/11864/12928/23797/15251/12914/224105/22339/13819/20662/18706/18176/18710/15234/21802/16653/70584/18481/14388/23871/22346/20663/21808/107746/241656/18708/215449/16476/328572/109905</t>
+  </si>
+  <si>
     <t>110157/109880/16001/17295/19211/18803/13867/23797/16000/13649/72508/18015/20418/56637/22339/20662/18596/16452/58988/26987/12125/18706/18176/13645/54635/18710/15234/56717/18595/21802/16653/14183/14388/20663/271849/18708/18750/12043/13866/16542/18752</t>
   </si>
   <si>
@@ -2079,9 +2079,6 @@
     <t>13121/14137/20775/16889/73166/20652/15490/13595/18194/66234/235293/16987/74754/13360</t>
   </si>
   <si>
-    <t>110157/19353/109880/12929/12540/17295/11863/11864/12928/23797/15251/12914/224105/22339/13819/20662/18706/18176/18710/15234/21802/16653/70584/18481/14388/23871/22346/20663/21808/107746/241656/18708/215449/16476/328572/109905</t>
-  </si>
-  <si>
     <t>12006/110157/21414/19353/170770/109880/17688/11789/12387/21812/11848/56044/17686/23797/23805/27015/26419/17869/56637/17128/17126/21416/19730/12125/18706/18710/16653/12367/17350/21808/72993/18708/16476/21415/12043/12018/13176/12443</t>
   </si>
   <si>
@@ -2226,18 +2223,21 @@
     <t>21823/108069/18749/12915/19739/13488/224129/17161/214084/12912/11909/26427/14683/18033/14812/14800/208647/242443/12569/16476/231991/14677/14811</t>
   </si>
   <si>
+    <t>320634/19211/53332/18803/71780/30955/75678/219135/104015/20975/18797/83493/18711/16329/240752/18706/18720/16330/67073/18705/18704/17772/16332/269437/234515/54384/18798/224020/101490/18795/69718/242291</t>
+  </si>
+  <si>
     <t>280645/14595/246179/53418/68273/217734/216395/97884/99011/75847/76898/14345/14348</t>
   </si>
   <si>
-    <t>320634/19211/53332/18803/71780/30955/75678/219135/104015/20975/18797/83493/18711/16329/240752/18706/18720/16330/67073/18705/18704/17772/16332/269437/234515/54384/18798/224020/101490/18795/69718/242291</t>
-  </si>
-  <si>
     <t>18749/11515/98660/67972/432530/22318/104110/11514/224129/11512/20496/14682/18797/381290/14683/20535/12494/18125/16439/11941/320707/11933/60596/11554/18798/234889/11549/12671/18750/18795/19091/20192/16531/18752</t>
   </si>
   <si>
     <t>18519/13544/59287/13388/19668/15182/19164/13543/12914/18128/16449/18129/433759/20602/270118/208117/18131/207521/66935/103806/11491/328572/433586</t>
   </si>
   <si>
+    <t>103135/72198/72068/104625/12227/71701/75901/18458/70640/58184/24128/50911/72162/72587/18983/69305/13209/24127/75686/72662/218343/210106/231464/93728/232791/319885/12226/234594/214627/22057/53621/76522/225929/57259/78893</t>
+  </si>
+  <si>
     <t>110157/170770/16151/23797/11783/18952/18035/13665/19766/13039/26419/18607/16906/12369/12675/11798/12370/12633/11545/22029/69601/12125/18706/18176/18049/12368/229445/13038/18033/18710/66593/12366/16653/16439/13032/14082/16150/12367/13666/71609/13036/11920/19249/11546/17210/22035/18708/12123/16476/328417/12043/11797/12018/22142</t>
   </si>
   <si>
@@ -2245,9 +2245,6 @@
   </si>
   <si>
     <t>14792/110524/13026/66826/67216/18806/19210/210992/110197/320951/68262/12660/14732/68671/18777/14571/18805/67916/75320/52123/71910/14712/270084/380921/16816/236899/217480/320127/218121/104418/99712/53357/333433/225010/18783/212862/331374/227333/28042/211429</t>
-  </si>
-  <si>
-    <t>103135/72198/72068/104625/12227/71701/75901/18458/70640/58184/24128/50911/72162/72587/18983/69305/13209/24127/75686/72662/218343/210106/231464/93728/232791/319885/12226/234594/214627/22057/53621/76522/225929/57259/78893</t>
   </si>
   <si>
     <t>68612/67030/26554/107995/17222/22196/12189/66313/69288/67345/17246/217232/67128/71991/26401/208650/12211/52563/83814/74126/12234/59026/22215/17344/11798/66799/14897/22193/16396/15204/72584/99375/75717/17999/56469/231672/22346/12402/17318/231380/67455/18854/70790/66515/235439/75788/22214/107568/105193/19823/27401/11797/140630/242521/66105</t>
@@ -2351,25 +2348,25 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F2" t="n">
-        <v>3.3399787543681143E-25</v>
+        <v>3.2450702720175627E-25</v>
       </c>
       <c r="G2" t="n">
-        <v>1.0086735838191705E-22</v>
+        <v>9.767661518772864E-23</v>
       </c>
       <c r="H2" t="n">
-        <v>6.961218877525123E-23</v>
+        <v>6.729250985131156E-23</v>
       </c>
       <c r="I2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="J2" t="n">
         <v>108.0</v>
@@ -2383,25 +2380,25 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F3" t="n">
-        <v>1.840574496249101E-24</v>
+        <v>1.7869336623525903E-24</v>
       </c>
       <c r="G3" t="n">
-        <v>2.7792674893361424E-22</v>
+        <v>2.6893351618406484E-22</v>
       </c>
       <c r="H3" t="n">
-        <v>1.918072369775379E-22</v>
+        <v>1.8527680604392647E-22</v>
       </c>
       <c r="I3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J3" t="n">
         <v>113.0</v>
@@ -2415,25 +2412,25 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F4" t="n">
-        <v>6.66395257761416E-20</v>
+        <v>6.459276760764453E-20</v>
       </c>
       <c r="G4" t="n">
-        <v>6.7083789281315875E-18</v>
+        <v>6.480807683300334E-18</v>
       </c>
       <c r="H4" t="n">
-        <v>4.62969336971089E-18</v>
+        <v>4.464833410072271E-18</v>
       </c>
       <c r="I4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J4" t="n">
         <v>134.0</v>
@@ -2447,25 +2444,25 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F5" t="n">
-        <v>2.6055902747273085E-19</v>
+        <v>2.5308644881545833E-19</v>
       </c>
       <c r="G5" t="n">
-        <v>1.967220657419118E-17</v>
+        <v>1.904475527336324E-17</v>
       </c>
       <c r="H5" t="n">
-        <v>1.3576496694631766E-17</v>
+        <v>1.3120534320169815E-17</v>
       </c>
       <c r="I5" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J5" t="n">
         <v>124.0</v>
@@ -2479,25 +2476,25 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F6" t="n">
-        <v>2.1005468784503975E-17</v>
+        <v>2.048570481338285E-17</v>
       </c>
       <c r="G6" t="n">
-        <v>1.2687303145840401E-15</v>
+        <v>1.2332394297656476E-15</v>
       </c>
       <c r="H6" t="n">
-        <v>8.755963830172185E-16</v>
+        <v>8.496176522602992E-16</v>
       </c>
       <c r="I6" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="J6" t="n">
         <v>107.0</v>
@@ -2511,25 +2508,25 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F7" t="n">
-        <v>5.636391443079341E-17</v>
+        <v>5.4872573053731505E-17</v>
       </c>
       <c r="G7" t="n">
-        <v>2.8369836930166017E-15</v>
+        <v>2.7527740815288637E-15</v>
       </c>
       <c r="H7" t="n">
-        <v>1.9579043960170343E-15</v>
+        <v>1.89647313887458E-15</v>
       </c>
       <c r="I7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J7" t="n">
         <v>119.0</v>
@@ -2543,25 +2540,25 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F8" t="n">
-        <v>1.9267934615902012E-14</v>
+        <v>1.904676116771534E-14</v>
       </c>
       <c r="G8" t="n">
-        <v>8.312737505717725E-13</v>
+        <v>8.190107302117597E-13</v>
       </c>
       <c r="H8" t="n">
-        <v>5.736918878118194E-13</v>
+        <v>5.64242398502244E-13</v>
       </c>
       <c r="I8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="J8" t="n">
         <v>42.0</v>
@@ -2575,28 +2572,28 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F9" t="n">
-        <v>1.331497070481339E-9</v>
+        <v>2.3050824877910615E-9</v>
       </c>
       <c r="G9" t="n">
-        <v>5.026401441067055E-8</v>
+        <v>8.672872860313869E-8</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4689002625698045E-8</v>
+        <v>5.975016448616305E-8</v>
       </c>
       <c r="I9" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="J9" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="10">
@@ -2607,25 +2604,25 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F10" t="n">
-        <v>1.0548053869223082E-6</v>
+        <v>1.046615219147256E-6</v>
       </c>
       <c r="G10" t="n">
-        <v>3.539458076117079E-5</v>
+        <v>3.5003464551480444E-5</v>
       </c>
       <c r="H10" t="n">
-        <v>2.4427072118200824E-5</v>
+        <v>2.4114993938246716E-5</v>
       </c>
       <c r="I10" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J10" t="n">
         <v>35.0</v>
@@ -2639,25 +2636,25 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F11" t="n">
-        <v>1.5678388045324892E-6</v>
+        <v>1.557783161691661E-6</v>
       </c>
       <c r="G11" t="n">
-        <v>4.734873189688117E-5</v>
+        <v>4.687812411293577E-5</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2677061399729775E-5</v>
+        <v>3.2295822522288325E-5</v>
       </c>
       <c r="I11" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J11" t="n">
         <v>27.0</v>
@@ -2671,25 +2668,25 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F12" t="n">
-        <v>1.7281296520019279E-6</v>
+        <v>1.713154037349812E-6</v>
       </c>
       <c r="G12" t="n">
-        <v>4.7445014082234745E-5</v>
+        <v>4.687812411293577E-5</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2743509195826E-5</v>
+        <v>3.2295822522288325E-5</v>
       </c>
       <c r="I12" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="J12" t="n">
         <v>42.0</v>
@@ -2703,28 +2700,28 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F13" t="n">
-        <v>1.9248392052665867E-6</v>
+        <v>2.5590231212597523E-6</v>
       </c>
       <c r="G13" t="n">
-        <v>4.8441786665875764E-5</v>
+        <v>6.418882995826545E-5</v>
       </c>
       <c r="H13" t="n">
-        <v>3.343141777568282E-5</v>
+        <v>4.4221715341067653E-5</v>
       </c>
       <c r="I13" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J13" t="n">
-        <v>49.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="14">
@@ -2735,28 +2732,28 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F14" t="n">
-        <v>2.574463053898619E-6</v>
+        <v>3.3218710587639637E-6</v>
       </c>
       <c r="G14" t="n">
-        <v>5.980675709826023E-5</v>
+        <v>7.509630751760882E-5</v>
       </c>
       <c r="H14" t="n">
-        <v>4.1274792281127665E-5</v>
+        <v>5.17362216505296E-5</v>
       </c>
       <c r="I14" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="J14" t="n">
-        <v>25.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="15">
@@ -2767,25 +2764,25 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F15" t="n">
-        <v>3.5349669644556652E-6</v>
+        <v>3.492851512446922E-6</v>
       </c>
       <c r="G15" t="n">
-        <v>7.625428737611507E-5</v>
+        <v>7.509630751760882E-5</v>
       </c>
       <c r="H15" t="n">
-        <v>5.262582398212194E-5</v>
+        <v>5.17362216505296E-5</v>
       </c>
       <c r="I15" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J15" t="n">
         <v>71.0</v>
@@ -2799,25 +2796,25 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F16" t="n">
-        <v>4.136519556476009E-6</v>
+        <v>4.085779342334275E-6</v>
       </c>
       <c r="G16" t="n">
-        <v>8.328192707038365E-5</v>
+        <v>8.198797213617446E-5</v>
       </c>
       <c r="H16" t="n">
-        <v>5.747585067945613E-5</v>
+        <v>5.648410739928788E-5</v>
       </c>
       <c r="I16" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="J16" t="n">
         <v>75.0</v>
@@ -2831,25 +2828,25 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F17" t="n">
-        <v>6.995870836173701E-6</v>
+        <v>6.948499216349272E-6</v>
       </c>
       <c r="G17" t="n">
-        <v>1.3204706203277862E-4</v>
+        <v>1.3071864150757066E-4</v>
       </c>
       <c r="H17" t="n">
-        <v>9.113042273436795E-5</v>
+        <v>9.005620694873727E-5</v>
       </c>
       <c r="I17" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J17" t="n">
         <v>31.0</v>
@@ -2863,25 +2860,25 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F18" t="n">
-        <v>7.745486030174018E-6</v>
+        <v>7.64732127235695E-6</v>
       </c>
       <c r="G18" t="n">
-        <v>1.375962812419149E-4</v>
+        <v>1.354025707634966E-4</v>
       </c>
       <c r="H18" t="n">
-        <v>9.496013832659168E-5</v>
+        <v>9.328311397240367E-5</v>
       </c>
       <c r="I18" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J18" t="n">
         <v>82.0</v>
@@ -2895,25 +2892,25 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F19" t="n">
-        <v>1.2584536298483357E-5</v>
+        <v>1.2419918522785798E-5</v>
       </c>
       <c r="G19" t="n">
-        <v>2.1114055345233188E-4</v>
+        <v>2.0768863751991805E-4</v>
       </c>
       <c r="H19" t="n">
-        <v>1.457156834561231E-4</v>
+        <v>1.430832718706902E-4</v>
       </c>
       <c r="I19" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J19" t="n">
         <v>89.0</v>
@@ -2927,25 +2924,25 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F20" t="n">
-        <v>2.294167912961661E-5</v>
+        <v>2.2676425262406938E-5</v>
       </c>
       <c r="G20" t="n">
-        <v>3.6421974379260974E-4</v>
+        <v>3.592423159991836E-4</v>
       </c>
       <c r="H20" t="n">
-        <v>2.513611337432441E-4</v>
+        <v>2.474933948307018E-4</v>
       </c>
       <c r="I20" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J20" t="n">
         <v>76.0</v>
@@ -2959,25 +2956,25 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E21" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F21" t="n">
-        <v>2.4120512833947664E-5</v>
+        <v>2.3885505658371294E-5</v>
       </c>
       <c r="G21" t="n">
-        <v>3.6421974379260974E-4</v>
+        <v>3.59476860158488E-4</v>
       </c>
       <c r="H21" t="n">
-        <v>2.513611337432441E-4</v>
+        <v>2.4765497972100765E-4</v>
       </c>
       <c r="I21" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J21" t="n">
         <v>58.0</v>
@@ -2991,28 +2988,28 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E22" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F22" t="n">
-        <v>5.098100204400026E-5</v>
+        <v>5.2035336244349976E-5</v>
       </c>
       <c r="G22" t="n">
-        <v>7.244186899947946E-4</v>
+        <v>7.458398195023496E-4</v>
       </c>
       <c r="H22" t="n">
-        <v>4.99947370578492E-4</v>
+        <v>5.13832643615887E-4</v>
       </c>
       <c r="I22" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="J22" t="n">
-        <v>41.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="23">
@@ -3023,28 +3020,28 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E23" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F23" t="n">
-        <v>5.277222244995193E-5</v>
+        <v>8.493781296496433E-5</v>
       </c>
       <c r="G23" t="n">
-        <v>7.244186899947946E-4</v>
+        <v>0.001162103713747921</v>
       </c>
       <c r="H23" t="n">
-        <v>4.99947370578492E-4</v>
+        <v>8.006100073731088E-4</v>
       </c>
       <c r="I23" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J23" t="n">
-        <v>110.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="24">
@@ -3055,25 +3052,25 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E24" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F24" t="n">
-        <v>9.933188471016406E-5</v>
+        <v>9.86962990461271E-5</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0012542701609126114</v>
+        <v>0.0012422772553407123</v>
       </c>
       <c r="H24" t="n">
-        <v>8.656169113304186E-4</v>
+        <v>8.558440961780743E-4</v>
       </c>
       <c r="I24" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="J24" t="n">
         <v>33.0</v>
@@ -3087,25 +3084,25 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F25" t="n">
-        <v>9.967709888047243E-5</v>
+        <v>9.90520070703558E-5</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0012542701609126114</v>
+        <v>0.0012422772553407123</v>
       </c>
       <c r="H25" t="n">
-        <v>8.656169113304186E-4</v>
+        <v>8.558440961780743E-4</v>
       </c>
       <c r="I25" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="J25" t="n">
         <v>32.0</v>
@@ -3119,25 +3116,25 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E26" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F26" t="n">
-        <v>1.489739799563871E-4</v>
+        <v>1.4722993303584975E-4</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0017996056778731564</v>
+        <v>0.0017726483937516308</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0012419725486890378</v>
+        <v>0.0012212335498131537</v>
       </c>
       <c r="I26" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="J26" t="n">
         <v>90.0</v>
@@ -3151,25 +3148,25 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E27" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F27" t="n">
-        <v>1.660132243225908E-4</v>
+        <v>1.6475038879737355E-4</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0018406729080748024</v>
+        <v>0.0018156476472062702</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0012703145200376816</v>
+        <v>0.0012508570956448163</v>
       </c>
       <c r="I27" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="J27" t="n">
         <v>45.0</v>
@@ -3183,25 +3180,25 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F28" t="n">
-        <v>1.6865958320529974E-4</v>
+        <v>1.6676532966681965E-4</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0018406729080748024</v>
+        <v>0.0018156476472062702</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0012703145200376816</v>
+        <v>0.0012508570956448163</v>
       </c>
       <c r="I28" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="J28" t="n">
         <v>85.0</v>
@@ -3215,25 +3212,25 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F29" t="n">
-        <v>1.706584153181936E-4</v>
+        <v>1.6889745555407164E-4</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0018406729080748024</v>
+        <v>0.0018156476472062702</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0012703145200376816</v>
+        <v>0.0012508570956448163</v>
       </c>
       <c r="I29" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="J29" t="n">
         <v>74.0</v>
@@ -3247,25 +3244,25 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D30" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E30" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F30" t="n">
-        <v>2.556285058422175E-4</v>
+        <v>2.544642015905656E-4</v>
       </c>
       <c r="G30" t="n">
-        <v>0.002662062371184472</v>
+        <v>0.00264116291995725</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0018371849058714724</v>
+        <v>0.0018195806792501428</v>
       </c>
       <c r="I30" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="J30" t="n">
         <v>21.0</v>
@@ -3279,25 +3276,25 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D31" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E31" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F31" t="n">
-        <v>2.73644896911707E-4</v>
+        <v>2.719443258603695E-4</v>
       </c>
       <c r="G31" t="n">
-        <v>0.002668003785961312</v>
+        <v>0.0026467144203020034</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0018412852897188563</v>
+        <v>0.001823405283439394</v>
       </c>
       <c r="I31" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J31" t="n">
         <v>34.0</v>
@@ -3311,25 +3308,25 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E32" t="s">
         <v>196</v>
       </c>
       <c r="F32" t="n">
-        <v>2.73867938294042E-4</v>
+        <v>2.72585206077615E-4</v>
       </c>
       <c r="G32" t="n">
-        <v>0.002668003785961312</v>
+        <v>0.0026467144203020034</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0018412852897188563</v>
+        <v>0.001823405283439394</v>
       </c>
       <c r="I32" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J32" t="n">
         <v>22.0</v>
@@ -3343,25 +3340,25 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E33" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F33" t="n">
-        <v>3.061341261134939E-4</v>
+        <v>3.0458229808914014E-4</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0028891408151960987</v>
+        <v>0.0028649772414009746</v>
       </c>
       <c r="H33" t="n">
-        <v>0.001993899900344467</v>
+        <v>0.0019737734448539673</v>
       </c>
       <c r="I33" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J33" t="n">
         <v>25.0</v>
@@ -3375,25 +3372,25 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E34" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="F34" t="n">
-        <v>3.4605117538215286E-4</v>
+        <v>3.4373558329288173E-4</v>
       </c>
       <c r="G34" t="n">
-        <v>0.003166892574709399</v>
+        <v>0.0031352851688229515</v>
       </c>
       <c r="H34" t="n">
-        <v>0.00218558637083465</v>
+        <v>0.0021599971262742487</v>
       </c>
       <c r="I34" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J34" t="n">
         <v>39.0</v>
@@ -3407,25 +3404,25 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E35" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F35" t="n">
-        <v>4.6308722160553193E-4</v>
+        <v>4.5808853700275465E-4</v>
       </c>
       <c r="G35" t="n">
-        <v>0.004113304144849137</v>
+        <v>0.004055430871700858</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0028387390055075955</v>
+        <v>0.002793914606487389</v>
       </c>
       <c r="I35" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="J35" t="n">
         <v>88.0</v>
@@ -3439,25 +3436,25 @@
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E36" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F36" t="n">
-        <v>5.103788367244237E-4</v>
+        <v>5.057298402894104E-4</v>
       </c>
       <c r="G36" t="n">
-        <v>0.004363018835655855</v>
+        <v>0.004328859917821996</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0030110760873470178</v>
+        <v>0.0029822885253048903</v>
       </c>
       <c r="I36" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="J36" t="n">
         <v>67.0</v>
@@ -3471,25 +3468,25 @@
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D37" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E37" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F37" t="n">
-        <v>5.237377541704984E-4</v>
+        <v>5.219875413045015E-4</v>
       </c>
       <c r="G37" t="n">
-        <v>0.004363018835655855</v>
+        <v>0.004328859917821996</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0030110760873470178</v>
+        <v>0.0029822885253048903</v>
       </c>
       <c r="I37" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J37" t="n">
         <v>14.0</v>
@@ -3503,25 +3500,25 @@
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D38" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E38" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F38" t="n">
-        <v>5.345420427790286E-4</v>
+        <v>5.321189932206441E-4</v>
       </c>
       <c r="G38" t="n">
-        <v>0.004363018835655855</v>
+        <v>0.004328859917821996</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0030110760873470178</v>
+        <v>0.0029822885253048903</v>
       </c>
       <c r="I38" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="J38" t="n">
         <v>22.0</v>
@@ -3535,25 +3532,25 @@
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D39" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E39" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F39" t="n">
-        <v>5.5036197052443E-4</v>
+        <v>5.475854446917616E-4</v>
       </c>
       <c r="G39" t="n">
-        <v>0.004373929344694155</v>
+        <v>0.004337453127690006</v>
       </c>
       <c r="H39" t="n">
-        <v>0.00301860582171294</v>
+        <v>0.002988208659398256</v>
       </c>
       <c r="I39" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="J39" t="n">
         <v>26.0</v>
@@ -3567,28 +3564,28 @@
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D40" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F40" t="n">
-        <v>6.560156629131153E-4</v>
+        <v>8.776496529952572E-4</v>
       </c>
       <c r="G40" t="n">
-        <v>0.005079916158968226</v>
+        <v>0.006773655014142883</v>
       </c>
       <c r="H40" t="n">
-        <v>0.003505832692491143</v>
+        <v>0.004666585199461962</v>
       </c>
       <c r="I40" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J40" t="n">
-        <v>56.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="41">
@@ -3599,28 +3596,28 @@
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D41" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E41" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F41" t="n">
-        <v>8.802280297742742E-4</v>
+        <v>9.471128893826688E-4</v>
       </c>
       <c r="G41" t="n">
-        <v>0.00664572162479577</v>
+        <v>0.007127024492604583</v>
       </c>
       <c r="H41" t="n">
-        <v>0.004586451313034376</v>
+        <v>0.004910032610746994</v>
       </c>
       <c r="I41" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J41" t="n">
-        <v>12.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="42">
@@ -3631,25 +3628,25 @@
         <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D42" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E42" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F42" t="n">
-        <v>9.869415458449817E-4</v>
+        <v>9.81139731552011E-4</v>
       </c>
       <c r="G42" t="n">
-        <v>0.007269666996224012</v>
+        <v>0.007203001443833057</v>
       </c>
       <c r="H42" t="n">
-        <v>0.005017058435874361</v>
+        <v>0.004962375535705935</v>
       </c>
       <c r="I42" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="J42" t="n">
         <v>35.0</v>
@@ -3663,28 +3660,28 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D43" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="E43" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0014693821885901222</v>
+        <v>0.0010577848413754459</v>
       </c>
       <c r="G43" t="n">
-        <v>0.010388230886391146</v>
+        <v>0.007580791363190695</v>
       </c>
       <c r="H43" t="n">
-        <v>0.007169291444773254</v>
+        <v>0.005222646961177014</v>
       </c>
       <c r="I43" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J43" t="n">
-        <v>70.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="44">
@@ -3695,28 +3692,28 @@
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D44" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="E44" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0014791189672676134</v>
+        <v>0.0014566147564688662</v>
       </c>
       <c r="G44" t="n">
-        <v>0.010388230886391146</v>
+        <v>0.010196303295282063</v>
       </c>
       <c r="H44" t="n">
-        <v>0.007169291444773254</v>
+        <v>0.007024555863509588</v>
       </c>
       <c r="I44" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="J44" t="n">
-        <v>45.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="45">
@@ -3727,25 +3724,25 @@
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D45" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E45" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0017302217267737218</v>
+        <v>0.0017228951808226124</v>
       </c>
       <c r="G45" t="n">
-        <v>0.011586030266868228</v>
+        <v>0.011501728409998099</v>
       </c>
       <c r="H45" t="n">
-        <v>0.007995935841198709</v>
+        <v>0.007923904517466778</v>
       </c>
       <c r="I45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J45" t="n">
         <v>22.0</v>
@@ -3759,25 +3756,25 @@
         <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D46" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E46" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F46" t="n">
-        <v>0.001764759577072644</v>
+        <v>0.0017577392254482145</v>
       </c>
       <c r="G46" t="n">
-        <v>0.011586030266868228</v>
+        <v>0.011501728409998099</v>
       </c>
       <c r="H46" t="n">
-        <v>0.007995935841198709</v>
+        <v>0.007923904517466778</v>
       </c>
       <c r="I46" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J46" t="n">
         <v>20.0</v>
@@ -3791,25 +3788,25 @@
         <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D47" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E47" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F47" t="n">
-        <v>0.001764759577072644</v>
+        <v>0.0017577392254482145</v>
       </c>
       <c r="G47" t="n">
-        <v>0.011586030266868228</v>
+        <v>0.011501728409998099</v>
       </c>
       <c r="H47" t="n">
-        <v>0.007995935841198709</v>
+        <v>0.007923904517466778</v>
       </c>
       <c r="I47" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J47" t="n">
         <v>20.0</v>
@@ -3823,25 +3820,25 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D48" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E48" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F48" t="n">
-        <v>0.001836708189415119</v>
+        <v>0.0018218324042795964</v>
       </c>
       <c r="G48" t="n">
-        <v>0.01180182708943332</v>
+        <v>0.0116674798657055</v>
       </c>
       <c r="H48" t="n">
-        <v>0.008144864983296609</v>
+        <v>0.008038095938254882</v>
       </c>
       <c r="I48" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J48" t="n">
         <v>64.0</v>
@@ -3855,25 +3852,25 @@
         <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D49" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E49" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F49" t="n">
-        <v>0.002349961624380664</v>
+        <v>0.0023307903385872786</v>
       </c>
       <c r="G49" t="n">
-        <v>0.01462816507709931</v>
+        <v>0.014410075915904192</v>
       </c>
       <c r="H49" t="n">
-        <v>0.010095422395488544</v>
+        <v>0.009927557109400685</v>
       </c>
       <c r="I49" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J49" t="n">
         <v>67.0</v>
@@ -3887,25 +3884,25 @@
         <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D50" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E50" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F50" t="n">
-        <v>0.002373444002575716</v>
+        <v>0.00234582631189138</v>
       </c>
       <c r="G50" t="n">
-        <v>0.01462816507709931</v>
+        <v>0.014410075915904192</v>
       </c>
       <c r="H50" t="n">
-        <v>0.010095422395488544</v>
+        <v>0.009927557109400685</v>
       </c>
       <c r="I50" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J50" t="n">
         <v>123.0</v>
@@ -3919,25 +3916,25 @@
         <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D51" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E51" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F51" t="n">
-        <v>0.002562295716471481</v>
+        <v>0.0025379439765636333</v>
       </c>
       <c r="G51" t="n">
-        <v>0.015476266127487747</v>
+        <v>0.015278422738913071</v>
       </c>
       <c r="H51" t="n">
-        <v>0.010680727407607438</v>
+        <v>0.010525788702800753</v>
       </c>
       <c r="I51" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="J51" t="n">
         <v>88.0</v>
@@ -3951,25 +3948,25 @@
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D52" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E52" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F52" t="n">
-        <v>0.003048691770116361</v>
+        <v>0.0030321584499106487</v>
       </c>
       <c r="G52" t="n">
-        <v>0.01786231501639974</v>
+        <v>0.01773495706130185</v>
       </c>
       <c r="H52" t="n">
-        <v>0.012327425490579117</v>
+        <v>0.012218172901124199</v>
       </c>
       <c r="I52" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="J52" t="n">
         <v>35.0</v>
@@ -3983,25 +3980,25 @@
         <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D53" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E53" t="s">
         <v>196</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0030756304001747898</v>
+        <v>0.003063846402616931</v>
       </c>
       <c r="G53" t="n">
-        <v>0.01786231501639974</v>
+        <v>0.01773495706130185</v>
       </c>
       <c r="H53" t="n">
-        <v>0.012327425490579117</v>
+        <v>0.012218172901124199</v>
       </c>
       <c r="I53" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="J53" t="n">
         <v>20.0</v>
@@ -4015,25 +4012,25 @@
         <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D54" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E54" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0032030037863054993</v>
+        <v>0.00317914951310723</v>
       </c>
       <c r="G54" t="n">
-        <v>0.017985710796443413</v>
+        <v>0.01781368710489725</v>
       </c>
       <c r="H54" t="n">
-        <v>0.012412585352721491</v>
+        <v>0.012272412518498893</v>
       </c>
       <c r="I54" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J54" t="n">
         <v>60.0</v>
@@ -4047,28 +4044,28 @@
         <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D55" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="E55" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003272331037660558</v>
+        <v>0.003253680562485339</v>
       </c>
       <c r="G55" t="n">
-        <v>0.017985710796443413</v>
+        <v>0.01781368710489725</v>
       </c>
       <c r="H55" t="n">
-        <v>0.012412585352721491</v>
+        <v>0.012272412518498893</v>
       </c>
       <c r="I55" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J55" t="n">
-        <v>34.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="56">
@@ -4079,28 +4076,28 @@
         <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D56" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E56" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F56" t="n">
-        <v>0.003275543356968171</v>
+        <v>0.003254992660363285</v>
       </c>
       <c r="G56" t="n">
-        <v>0.017985710796443413</v>
+        <v>0.01781368710489725</v>
       </c>
       <c r="H56" t="n">
-        <v>0.012412585352721491</v>
+        <v>0.012272412518498893</v>
       </c>
       <c r="I56" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="J56" t="n">
-        <v>50.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="57">
@@ -4111,25 +4108,25 @@
         <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D57" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E57" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F57" t="n">
-        <v>0.004691509780435359</v>
+        <v>0.004665729854051348</v>
       </c>
       <c r="G57" t="n">
-        <v>0.025300642030204972</v>
+        <v>0.025078297965525995</v>
       </c>
       <c r="H57" t="n">
-        <v>0.017460882265530095</v>
+        <v>0.01727723273022774</v>
       </c>
       <c r="I57" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J57" t="n">
         <v>38.0</v>
@@ -4143,25 +4140,25 @@
         <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D58" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E58" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F58" t="n">
-        <v>0.005292308119354285</v>
+        <v>0.005268893324134292</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02803994828149112</v>
+        <v>0.02782345422042845</v>
       </c>
       <c r="H58" t="n">
-        <v>0.019351375948885474</v>
+        <v>0.019168457707376834</v>
       </c>
       <c r="I58" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="J58" t="n">
         <v>27.0</v>
@@ -4175,25 +4172,25 @@
         <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E59" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F59" t="n">
-        <v>0.005468322907652537</v>
+        <v>0.005439627422727352</v>
       </c>
       <c r="G59" t="n">
-        <v>0.028347088454911944</v>
+        <v>0.028174724938922705</v>
       </c>
       <c r="H59" t="n">
-        <v>0.019563344419911345</v>
+        <v>0.019410459216533567</v>
       </c>
       <c r="I59" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="J59" t="n">
         <v>36.0</v>
@@ -4207,25 +4204,25 @@
         <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D60" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E60" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F60" t="n">
-        <v>0.005538007347151671</v>
+        <v>0.005522620502978205</v>
       </c>
       <c r="G60" t="n">
-        <v>0.028347088454911944</v>
+        <v>0.028174724938922705</v>
       </c>
       <c r="H60" t="n">
-        <v>0.019563344419911345</v>
+        <v>0.019410459216533567</v>
       </c>
       <c r="I60" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="J60" t="n">
         <v>13.0</v>
@@ -4239,28 +4236,28 @@
         <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D61" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E61" t="s">
-        <v>236</v>
+        <v>193</v>
       </c>
       <c r="F61" t="n">
-        <v>0.008016435249282047</v>
+        <v>0.0076418082430679685</v>
       </c>
       <c r="G61" t="n">
-        <v>0.04034939075471963</v>
+        <v>0.03833640468605764</v>
       </c>
       <c r="H61" t="n">
-        <v>0.027846564550137638</v>
+        <v>0.026411161822533155</v>
       </c>
       <c r="I61" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="J61" t="n">
-        <v>31.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="62">
@@ -4271,28 +4268,28 @@
         <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D62" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="E62" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F62" t="n">
-        <v>0.00840550115896306</v>
+        <v>0.0079793290263716</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04161412049191548</v>
+        <v>0.03937341044160412</v>
       </c>
       <c r="H62" t="n">
-        <v>0.02871939999093505</v>
+        <v>0.027125587889477228</v>
       </c>
       <c r="I62" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="J62" t="n">
-        <v>98.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="63">
@@ -4303,28 +4300,28 @@
         <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D63" t="s">
         <v>182</v>
       </c>
       <c r="E63" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F63" t="n">
-        <v>0.008827994179261868</v>
+        <v>0.008329829574634991</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04300087487317878</v>
+        <v>0.040439979063953746</v>
       </c>
       <c r="H63" t="n">
-        <v>0.029676449023664685</v>
+        <v>0.027860380750476966</v>
       </c>
       <c r="I63" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="J63" t="n">
-        <v>53.0</v>
+        <v>98.0</v>
       </c>
     </row>
     <row r="64">
@@ -4335,27 +4332,59 @@
         <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D64" t="s">
         <v>183</v>
       </c>
       <c r="E64" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="F64" t="n">
-        <v>0.010076184625127054</v>
+        <v>0.008772527576245628</v>
       </c>
       <c r="G64" t="n">
-        <v>0.04830171042521223</v>
+        <v>0.04191318730872911</v>
       </c>
       <c r="H64" t="n">
-        <v>0.03333474612823988</v>
+        <v>0.028875320509948017</v>
       </c>
       <c r="I64" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="J64" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" t="s">
+        <v>136</v>
+      </c>
+      <c r="D65" t="s">
+        <v>184</v>
+      </c>
+      <c r="E65" t="s">
+        <v>207</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.01003329173202739</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.04718782517719132</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.03250918538173349</v>
+      </c>
+      <c r="I65" t="s">
+        <v>304</v>
+      </c>
+      <c r="J65" t="n">
         <v>28.0</v>
       </c>
     </row>
@@ -4404,28 +4433,28 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E2" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="F2" t="n">
-        <v>2.0457286205996484E-24</v>
+        <v>1.5739015658839116E-24</v>
       </c>
       <c r="G2" t="n">
-        <v>6.1985577204169345E-22</v>
+        <v>4.753182728969413E-22</v>
       </c>
       <c r="H2" t="n">
-        <v>3.682311517079367E-22</v>
+        <v>2.833022818591041E-22</v>
       </c>
       <c r="I2" t="s">
         <v>637</v>
@@ -4436,28 +4465,28 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F3" t="n">
-        <v>1.38006523579437E-21</v>
+        <v>1.175801192139269E-21</v>
       </c>
       <c r="G3" t="n">
-        <v>1.7013247084667127E-19</v>
+        <v>1.429492496213454E-19</v>
       </c>
       <c r="H3" t="n">
-        <v>1.0106879456237897E-19</v>
+        <v>8.520153950941116E-20</v>
       </c>
       <c r="I3" t="s">
         <v>638</v>
@@ -4468,28 +4497,28 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B4" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C4" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F4" t="n">
-        <v>1.6844799093729829E-21</v>
+        <v>1.420025658490186E-21</v>
       </c>
       <c r="G4" t="n">
-        <v>1.7013247084667127E-19</v>
+        <v>1.429492496213454E-19</v>
       </c>
       <c r="H4" t="n">
-        <v>1.0106879456237897E-19</v>
+        <v>8.520153950941116E-20</v>
       </c>
       <c r="I4" t="s">
         <v>639</v>
@@ -4500,28 +4529,28 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C5" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E5" t="s">
-        <v>579</v>
+        <v>223</v>
       </c>
       <c r="F5" t="n">
-        <v>1.3810149769814288E-17</v>
+        <v>1.2529306325119319E-17</v>
       </c>
       <c r="G5" t="n">
-        <v>1.0461188450634322E-15</v>
+        <v>9.459626275465085E-16</v>
       </c>
       <c r="H5" t="n">
-        <v>6.214567396416429E-16</v>
+        <v>5.638187846303693E-16</v>
       </c>
       <c r="I5" t="s">
         <v>640</v>
@@ -4532,28 +4561,28 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C6" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D6" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E6" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F6" t="n">
-        <v>2.153915453797359E-17</v>
+        <v>1.75848142397695E-17</v>
       </c>
       <c r="G6" t="n">
-        <v>1.3052727650011996E-15</v>
+        <v>1.0621227800820777E-15</v>
       </c>
       <c r="H6" t="n">
-        <v>7.754095633670492E-16</v>
+        <v>6.33053312631702E-16</v>
       </c>
       <c r="I6" t="s">
         <v>641</v>
@@ -4564,28 +4593,28 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F7" t="n">
-        <v>1.1152573980799124E-12</v>
+        <v>9.430984785210011E-13</v>
       </c>
       <c r="G7" t="n">
-        <v>5.6320498603035575E-11</v>
+        <v>4.746929008555706E-11</v>
       </c>
       <c r="H7" t="n">
-        <v>3.345772194239737E-11</v>
+        <v>2.8292954355630035E-11</v>
       </c>
       <c r="I7" t="s">
         <v>642</v>
@@ -4596,28 +4625,28 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B8" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C8" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D8" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E8" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F8" t="n">
-        <v>1.7412083863099198E-12</v>
+        <v>1.615635084746752E-12</v>
       </c>
       <c r="G8" t="n">
-        <v>7.536944872170081E-11</v>
+        <v>6.970311365621702E-11</v>
       </c>
       <c r="H8" t="n">
-        <v>4.4773929933683655E-11</v>
+        <v>4.1544902179202197E-11</v>
       </c>
       <c r="I8" t="s">
         <v>643</v>
@@ -4628,28 +4657,28 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B9" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C9" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D9" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E9" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F9" t="n">
-        <v>3.6362196915947333E-12</v>
+        <v>3.2078044882985135E-12</v>
       </c>
       <c r="G9" t="n">
-        <v>1.3772182081915053E-10</v>
+        <v>1.2109461943326888E-10</v>
       </c>
       <c r="H9" t="n">
-        <v>8.18149430608815E-11</v>
+        <v>7.217560098671656E-11</v>
       </c>
       <c r="I9" t="s">
         <v>644</v>
@@ -4660,28 +4689,28 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B10" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C10" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D10" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E10" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F10" t="n">
-        <v>1.292390392143228E-11</v>
+        <v>1.163231875281446E-11</v>
       </c>
       <c r="G10" t="n">
-        <v>4.351047653548867E-10</v>
+        <v>3.903289181499963E-10</v>
       </c>
       <c r="H10" t="n">
-        <v>2.5847807842864557E-10</v>
+        <v>2.326463750562892E-10</v>
       </c>
       <c r="I10" t="s">
         <v>645</v>
@@ -4692,28 +4721,28 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B11" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C11" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D11" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E11" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F11" t="n">
-        <v>1.3760266244494797E-9</v>
+        <v>1.2796677723002522E-9</v>
       </c>
       <c r="G11" t="n">
-        <v>4.169360672081924E-8</v>
+        <v>3.864596672346761E-8</v>
       </c>
       <c r="H11" t="n">
-        <v>2.4768479240090633E-8</v>
+        <v>2.3034019901404537E-8</v>
       </c>
       <c r="I11" t="s">
         <v>646</v>
@@ -4724,28 +4753,28 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B12" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C12" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D12" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E12" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F12" t="n">
-        <v>4.6658892517951396E-9</v>
+        <v>4.19297246709081E-9</v>
       </c>
       <c r="G12" t="n">
-        <v>1.2752857520952972E-7</v>
+        <v>1.1511615318740222E-7</v>
       </c>
       <c r="H12" t="n">
-        <v>7.57595496294236E-8</v>
+        <v>6.861227673421326E-8</v>
       </c>
       <c r="I12" t="s">
         <v>647</v>
@@ -4756,28 +4785,28 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B13" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C13" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D13" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E13" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F13" t="n">
-        <v>5.050636641961573E-9</v>
+        <v>4.62448550436964E-9</v>
       </c>
       <c r="G13" t="n">
-        <v>1.2752857520952972E-7</v>
+        <v>1.1638288519330262E-7</v>
       </c>
       <c r="H13" t="n">
-        <v>7.57595496294236E-8</v>
+        <v>6.93672825655446E-8</v>
       </c>
       <c r="I13" t="s">
         <v>648</v>
@@ -4788,28 +4817,28 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B14" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C14" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D14" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E14" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F14" t="n">
-        <v>1.4600926146975781E-8</v>
+        <v>1.3165253844029122E-8</v>
       </c>
       <c r="G14" t="n">
-        <v>3.4031389404105087E-7</v>
+        <v>3.0583897391513807E-7</v>
       </c>
       <c r="H14" t="n">
-        <v>2.0216666972735696E-7</v>
+        <v>1.8228813014809552E-7</v>
       </c>
       <c r="I14" t="s">
         <v>649</v>
@@ -4820,28 +4849,28 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B15" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C15" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D15" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E15" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F15" t="n">
-        <v>1.815589074625982E-8</v>
+        <v>1.6724132860550945E-8</v>
       </c>
       <c r="G15" t="n">
-        <v>3.929453497226233E-7</v>
+        <v>3.6076343742045613E-7</v>
       </c>
       <c r="H15" t="n">
-        <v>2.3343288102334056E-7</v>
+        <v>2.1502456534994072E-7</v>
       </c>
       <c r="I15" t="s">
         <v>650</v>
@@ -4852,28 +4881,28 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B16" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C16" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D16" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E16" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F16" t="n">
-        <v>4.439446733872982E-8</v>
+        <v>4.033985957116356E-8</v>
       </c>
       <c r="G16" t="n">
-        <v>8.967682402423423E-7</v>
+        <v>8.12175839366093E-7</v>
       </c>
       <c r="H16" t="n">
-        <v>5.327336080647578E-7</v>
+        <v>4.840783148539628E-7</v>
       </c>
       <c r="I16" t="s">
         <v>651</v>
@@ -4884,28 +4913,28 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B17" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C17" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D17" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E17" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F17" t="n">
-        <v>5.117312635680922E-8</v>
+        <v>4.713120297524509E-8</v>
       </c>
       <c r="G17" t="n">
-        <v>9.690910803820745E-7</v>
+        <v>8.89601456157751E-7</v>
       </c>
       <c r="H17" t="n">
-        <v>5.756976715141038E-7</v>
+        <v>5.302260334715073E-7</v>
       </c>
       <c r="I17" t="s">
         <v>652</v>
@@ -4916,28 +4945,28 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B18" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C18" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E18" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F18" t="n">
-        <v>5.547843396184981E-8</v>
+        <v>5.186309681939772E-8</v>
       </c>
       <c r="G18" t="n">
-        <v>9.88821499437676E-7</v>
+        <v>9.213326611445948E-7</v>
       </c>
       <c r="H18" t="n">
-        <v>5.874187125372333E-7</v>
+        <v>5.491386722053877E-7</v>
       </c>
       <c r="I18" t="s">
         <v>653</v>
@@ -4948,28 +4977,28 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B19" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C19" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D19" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E19" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F19" t="n">
-        <v>6.806179718753244E-8</v>
+        <v>6.428125792490754E-8</v>
       </c>
       <c r="G19" t="n">
-        <v>1.1457069193234627E-6</v>
+        <v>1.0784966607401155E-6</v>
       </c>
       <c r="H19" t="n">
-        <v>6.806179718753243E-7</v>
+        <v>6.428125792490754E-7</v>
       </c>
       <c r="I19" t="s">
         <v>654</v>
@@ -4980,28 +5009,28 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B20" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C20" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D20" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E20" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F20" t="n">
-        <v>8.939748170064081E-8</v>
+        <v>8.237390788288306E-8</v>
       </c>
       <c r="G20" t="n">
-        <v>1.4256545765944299E-6</v>
+        <v>1.3093115884542466E-6</v>
       </c>
       <c r="H20" t="n">
-        <v>8.469235108481762E-7</v>
+        <v>7.803843904694185E-7</v>
       </c>
       <c r="I20" t="s">
         <v>655</v>
@@ -5012,28 +5041,28 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B21" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C21" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D21" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E21" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F21" t="n">
-        <v>9.975413090486652E-8</v>
+        <v>8.975987722555997E-8</v>
       </c>
       <c r="G21" t="n">
-        <v>1.5112750832087277E-6</v>
+        <v>1.3553741461059556E-6</v>
       </c>
       <c r="H21" t="n">
-        <v>8.977871781437987E-7</v>
+        <v>8.078388950300398E-7</v>
       </c>
       <c r="I21" t="s">
         <v>656</v>
@@ -5044,92 +5073,92 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B22" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C22" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D22" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E22" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F22" t="n">
-        <v>1.4345803401680315E-7</v>
+        <v>2.054831659369229E-7</v>
       </c>
       <c r="G22" t="n">
-        <v>2.069894490813874E-6</v>
+        <v>2.9550436244262244E-6</v>
       </c>
       <c r="H22" t="n">
-        <v>1.2296402915725985E-6</v>
+        <v>1.7612842794593392E-6</v>
       </c>
       <c r="I22" t="s">
         <v>657</v>
       </c>
       <c r="J22" t="n">
-        <v>84.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B23" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C23" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D23" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E23" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F23" t="n">
-        <v>2.2013395695035781E-7</v>
+        <v>4.218687150886596E-7</v>
       </c>
       <c r="G23" t="n">
-        <v>3.0318449525435647E-6</v>
+        <v>5.7911069071261445E-6</v>
       </c>
       <c r="H23" t="n">
-        <v>1.8010960114120185E-6</v>
+        <v>3.4516531234526695E-6</v>
       </c>
       <c r="I23" t="s">
         <v>658</v>
       </c>
       <c r="J23" t="n">
-        <v>61.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B24" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C24" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D24" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E24" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F24" t="n">
-        <v>5.262969329163669E-7</v>
+        <v>4.968304293373555E-7</v>
       </c>
       <c r="G24" t="n">
-        <v>6.933390029289529E-6</v>
+        <v>6.523599550429625E-6</v>
       </c>
       <c r="H24" t="n">
-        <v>4.118845561954176E-6</v>
+        <v>3.888238142640174E-6</v>
       </c>
       <c r="I24" t="s">
         <v>659</v>
@@ -5140,28 +5169,28 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B25" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C25" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D25" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E25" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F25" t="n">
-        <v>7.379826442214383E-7</v>
+        <v>6.938837553947157E-7</v>
       </c>
       <c r="G25" t="n">
-        <v>9.317030883295659E-6</v>
+        <v>8.73137058871684E-6</v>
       </c>
       <c r="H25" t="n">
-        <v>5.534869831660788E-6</v>
+        <v>5.204128165460368E-6</v>
       </c>
       <c r="I25" t="s">
         <v>660</v>
@@ -5172,28 +5201,28 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B26" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C26" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D26" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E26" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F26" t="n">
-        <v>8.088231128838023E-7</v>
+        <v>7.293918290620378E-7</v>
       </c>
       <c r="G26" t="n">
-        <v>9.802936128151683E-6</v>
+        <v>8.811053295069417E-6</v>
       </c>
       <c r="H26" t="n">
-        <v>5.8235264127633765E-6</v>
+        <v>5.251621169246673E-6</v>
       </c>
       <c r="I26" t="s">
         <v>661</v>
@@ -5204,28 +5233,28 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B27" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C27" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D27" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E27" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F27" t="n">
-        <v>1.1216748711485992E-6</v>
+        <v>1.0705149312509267E-6</v>
       </c>
       <c r="G27" t="n">
-        <v>1.3071826383000982E-5</v>
+        <v>1.2434442662991533E-5</v>
       </c>
       <c r="H27" t="n">
-        <v>7.765441415644148E-6</v>
+        <v>7.41125721635257E-6</v>
       </c>
       <c r="I27" t="s">
         <v>662</v>
@@ -5236,28 +5265,28 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B28" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C28" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D28" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E28" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F28" t="n">
-        <v>1.2807991642810881E-6</v>
+        <v>1.230366924756963E-6</v>
       </c>
       <c r="G28" t="n">
-        <v>1.4373412843598877E-5</v>
+        <v>1.3761881899133438E-5</v>
       </c>
       <c r="H28" t="n">
-        <v>8.538661095207254E-6</v>
+        <v>8.20244616504642E-6</v>
       </c>
       <c r="I28" t="s">
         <v>663</v>
@@ -5268,156 +5297,156 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B29" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C29" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D29" t="s">
-        <v>515</v>
+        <v>539</v>
       </c>
       <c r="E29" t="s">
-        <v>197</v>
+        <v>600</v>
       </c>
       <c r="F29" t="n">
-        <v>1.5471711681160238E-6</v>
+        <v>1.420495845555761E-6</v>
       </c>
       <c r="G29" t="n">
-        <v>1.600927075507713E-5</v>
+        <v>1.5075303644614717E-5</v>
       </c>
       <c r="H29" t="n">
-        <v>9.510457874303245E-6</v>
+        <v>8.985280317982281E-6</v>
       </c>
       <c r="I29" t="s">
         <v>664</v>
       </c>
       <c r="J29" t="n">
-        <v>63.0</v>
+        <v>103.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B30" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C30" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D30" t="s">
-        <v>538</v>
+        <v>516</v>
       </c>
       <c r="E30" t="s">
-        <v>599</v>
+        <v>198</v>
       </c>
       <c r="F30" t="n">
-        <v>1.5546874340022345E-6</v>
+        <v>1.447628495674923E-6</v>
       </c>
       <c r="G30" t="n">
-        <v>1.600927075507713E-5</v>
+        <v>1.5075303644614717E-5</v>
       </c>
       <c r="H30" t="n">
-        <v>9.510457874303245E-6</v>
+        <v>8.985280317982281E-6</v>
       </c>
       <c r="I30" t="s">
         <v>665</v>
       </c>
       <c r="J30" t="n">
-        <v>103.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B31" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C31" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D31" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E31" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F31" t="n">
-        <v>1.5850763123838742E-6</v>
+        <v>2.1177708657588593E-6</v>
       </c>
       <c r="G31" t="n">
-        <v>1.600927075507713E-5</v>
+        <v>2.1318893381972517E-5</v>
       </c>
       <c r="H31" t="n">
-        <v>9.510457874303245E-6</v>
+        <v>1.2706625194553156E-5</v>
       </c>
       <c r="I31" t="s">
         <v>666</v>
       </c>
       <c r="J31" t="n">
-        <v>52.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B32" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C32" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D32" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E32" t="s">
-        <v>601</v>
+        <v>202</v>
       </c>
       <c r="F32" t="n">
-        <v>2.2414321344490026E-6</v>
+        <v>2.813494901411061E-6</v>
       </c>
       <c r="G32" t="n">
-        <v>2.1908191507678958E-5</v>
+        <v>2.6646947495155118E-5</v>
       </c>
       <c r="H32" t="n">
-        <v>1.3014767232284531E-5</v>
+        <v>1.5882286586516296E-5</v>
       </c>
       <c r="I32" t="s">
         <v>667</v>
       </c>
       <c r="J32" t="n">
-        <v>50.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B33" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C33" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D33" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E33" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F33" t="n">
-        <v>2.9572242745047435E-6</v>
+        <v>2.8235176153806746E-6</v>
       </c>
       <c r="G33" t="n">
-        <v>2.7843096935743762E-5</v>
+        <v>2.6646947495155118E-5</v>
       </c>
       <c r="H33" t="n">
-        <v>1.6540453625194314E-5</v>
+        <v>1.5882286586516296E-5</v>
       </c>
       <c r="I33" t="s">
         <v>668</v>
@@ -5428,444 +5457,444 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B34" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C34" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D34" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="E34" t="s">
-        <v>201</v>
+        <v>602</v>
       </c>
       <c r="F34" t="n">
-        <v>3.0324164979522908E-6</v>
+        <v>2.9987105224178016E-6</v>
       </c>
       <c r="G34" t="n">
-        <v>2.7843096935743762E-5</v>
+        <v>2.7442744780914427E-5</v>
       </c>
       <c r="H34" t="n">
-        <v>1.6540453625194314E-5</v>
+        <v>1.6356602849551644E-5</v>
       </c>
       <c r="I34" t="s">
         <v>669</v>
       </c>
       <c r="J34" t="n">
-        <v>79.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B35" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C35" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D35" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="E35" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F35" t="n">
-        <v>3.1672772502764817E-6</v>
+        <v>3.9722160837861955E-6</v>
       </c>
       <c r="G35" t="n">
-        <v>2.8226029612758057E-5</v>
+        <v>3.52826252148068E-5</v>
       </c>
       <c r="H35" t="n">
-        <v>1.676793838381667E-5</v>
+        <v>2.1029379267103388E-5</v>
       </c>
       <c r="I35" t="s">
         <v>670</v>
       </c>
       <c r="J35" t="n">
-        <v>48.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B36" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C36" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D36" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E36" t="s">
-        <v>603</v>
+        <v>197</v>
       </c>
       <c r="F36" t="n">
-        <v>4.241599038964731E-6</v>
+        <v>5.434810569813148E-6</v>
       </c>
       <c r="G36" t="n">
-        <v>3.6720128823037525E-5</v>
+        <v>4.689465120238773E-5</v>
       </c>
       <c r="H36" t="n">
-        <v>2.1813937914675758E-5</v>
+        <v>2.7950454359039045E-5</v>
       </c>
       <c r="I36" t="s">
         <v>671</v>
       </c>
       <c r="J36" t="n">
-        <v>65.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B37" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C37" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D37" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E37" t="s">
         <v>604</v>
       </c>
       <c r="F37" t="n">
-        <v>5.709135245424286E-6</v>
+        <v>6.1623848469051775E-6</v>
       </c>
       <c r="G37" t="n">
-        <v>4.8051888315654404E-5</v>
+        <v>5.1695561771260104E-5</v>
       </c>
       <c r="H37" t="n">
-        <v>2.854567622712143E-5</v>
+        <v>3.081192423452589E-5</v>
       </c>
       <c r="I37" t="s">
         <v>672</v>
       </c>
       <c r="J37" t="n">
-        <v>42.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B38" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C38" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D38" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="E38" t="s">
         <v>605</v>
       </c>
       <c r="F38" t="n">
-        <v>6.646713589768663E-6</v>
+        <v>6.565199125603733E-6</v>
       </c>
       <c r="G38" t="n">
-        <v>5.4431195072970406E-5</v>
+        <v>5.3586219890062896E-5</v>
       </c>
       <c r="H38" t="n">
-        <v>3.233536340968539E-5</v>
+        <v>3.1938806556991136E-5</v>
       </c>
       <c r="I38" t="s">
         <v>673</v>
       </c>
       <c r="J38" t="n">
-        <v>84.0</v>
+        <v>64.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B39" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C39" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D39" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="E39" t="s">
-        <v>606</v>
+        <v>585</v>
       </c>
       <c r="F39" t="n">
-        <v>6.998040078202258E-6</v>
+        <v>1.0073898885818243E-5</v>
       </c>
       <c r="G39" t="n">
-        <v>5.5800161676191696E-5</v>
+        <v>8.00609858820292E-5</v>
       </c>
       <c r="H39" t="n">
-        <v>3.3148610896747544E-5</v>
+        <v>4.771846840650747E-5</v>
       </c>
       <c r="I39" t="s">
         <v>674</v>
       </c>
       <c r="J39" t="n">
-        <v>64.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>340</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>340</v>
+        <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>445</v>
+        <v>121</v>
       </c>
       <c r="D40" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="E40" t="s">
-        <v>584</v>
+        <v>228</v>
       </c>
       <c r="F40" t="n">
-        <v>1.0616974981233106E-5</v>
+        <v>1.157859393538718E-5</v>
       </c>
       <c r="G40" t="n">
-        <v>8.248572870034951E-5</v>
+        <v>8.965988124325457E-5</v>
       </c>
       <c r="H40" t="n">
-        <v>4.900142299030664E-5</v>
+        <v>5.343966431717159E-5</v>
       </c>
       <c r="I40" t="s">
         <v>675</v>
       </c>
       <c r="J40" t="n">
-        <v>48.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>343</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>343</v>
       </c>
       <c r="C41" t="s">
-        <v>120</v>
+        <v>447</v>
       </c>
       <c r="D41" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E41" t="s">
-        <v>226</v>
+        <v>606</v>
       </c>
       <c r="F41" t="n">
-        <v>1.2659881777065497E-5</v>
+        <v>1.2037435145118243E-5</v>
       </c>
       <c r="G41" t="n">
-        <v>9.365914250333916E-5</v>
+        <v>9.088263534564273E-5</v>
       </c>
       <c r="H41" t="n">
-        <v>5.563909455643911E-5</v>
+        <v>5.4168458153032094E-5</v>
       </c>
       <c r="I41" t="s">
         <v>676</v>
       </c>
       <c r="J41" t="n">
-        <v>115.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B42" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C42" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D42" t="s">
-        <v>547</v>
+        <v>530</v>
       </c>
       <c r="E42" t="s">
         <v>607</v>
       </c>
       <c r="F42" t="n">
-        <v>1.2673349315633352E-5</v>
+        <v>1.5886926494114715E-5</v>
       </c>
       <c r="G42" t="n">
-        <v>9.365914250333916E-5</v>
+        <v>1.1702077563957668E-4</v>
       </c>
       <c r="H42" t="n">
-        <v>5.563909455643911E-5</v>
+        <v>6.974748216928411E-5</v>
       </c>
       <c r="I42" t="s">
         <v>677</v>
       </c>
       <c r="J42" t="n">
-        <v>47.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B43" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C43" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D43" t="s">
-        <v>529</v>
+        <v>549</v>
       </c>
       <c r="E43" t="s">
-        <v>608</v>
+        <v>238</v>
       </c>
       <c r="F43" t="n">
-        <v>1.7024394235004374E-5</v>
+        <v>2.4370160930666744E-5</v>
       </c>
       <c r="G43" t="n">
-        <v>1.2281884412396015E-4</v>
+        <v>1.7523306193003232E-4</v>
       </c>
       <c r="H43" t="n">
-        <v>7.296168957859017E-5</v>
+        <v>1.0444354684571461E-4</v>
       </c>
       <c r="I43" t="s">
         <v>678</v>
       </c>
       <c r="J43" t="n">
-        <v>77.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B44" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C44" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D44" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="E44" t="s">
-        <v>236</v>
+        <v>597</v>
       </c>
       <c r="F44" t="n">
-        <v>2.5364744621722012E-5</v>
+        <v>3.012110757673692E-5</v>
       </c>
       <c r="G44" t="n">
-        <v>1.787329679158551E-4</v>
+        <v>2.1154824391103602E-4</v>
       </c>
       <c r="H44" t="n">
-        <v>1.0617800074209215E-4</v>
+        <v>1.260883572979685E-4</v>
       </c>
       <c r="I44" t="s">
         <v>679</v>
       </c>
       <c r="J44" t="n">
-        <v>33.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B45" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C45" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D45" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="E45" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="F45" t="n">
-        <v>3.1717967769015E-5</v>
+        <v>3.2904348124648976E-5</v>
       </c>
       <c r="G45" t="n">
-        <v>2.1842145986389875E-4</v>
+        <v>2.2584348031009068E-4</v>
       </c>
       <c r="H45" t="n">
-        <v>1.29755322691425E-4</v>
+        <v>1.34608696873564E-4</v>
       </c>
       <c r="I45" t="s">
         <v>680</v>
       </c>
       <c r="J45" t="n">
-        <v>50.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B46" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C46" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D46" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="E46" t="s">
-        <v>609</v>
+        <v>206</v>
       </c>
       <c r="F46" t="n">
-        <v>3.4750885276103215E-5</v>
+        <v>3.690844583869549E-5</v>
       </c>
       <c r="G46" t="n">
-        <v>2.3398929419242832E-4</v>
+        <v>2.4769668096191196E-4</v>
       </c>
       <c r="H46" t="n">
-        <v>1.3900354110441286E-4</v>
+        <v>1.4763378335478196E-4</v>
       </c>
       <c r="I46" t="s">
         <v>681</v>
       </c>
       <c r="J46" t="n">
-        <v>55.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B47" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C47" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D47" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E47" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F47" t="n">
-        <v>7.846284891400856E-5</v>
+        <v>7.509272089613583E-5</v>
       </c>
       <c r="G47" t="n">
-        <v>5.06690636680609E-4</v>
+        <v>4.8268698110774E-4</v>
       </c>
       <c r="H47" t="n">
-        <v>3.01004338622144E-4</v>
+        <v>2.876942271503086E-4</v>
       </c>
       <c r="I47" t="s">
         <v>682</v>
@@ -5876,28 +5905,28 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B48" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C48" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D48" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E48" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F48" t="n">
-        <v>7.859557730689316E-5</v>
+        <v>7.512015931146947E-5</v>
       </c>
       <c r="G48" t="n">
-        <v>5.06690636680609E-4</v>
+        <v>4.8268698110774E-4</v>
       </c>
       <c r="H48" t="n">
-        <v>3.01004338622144E-4</v>
+        <v>2.876942271503086E-4</v>
       </c>
       <c r="I48" t="s">
         <v>683</v>
@@ -5908,28 +5937,28 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B49" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C49" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D49" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E49" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F49" t="n">
-        <v>9.387153174929368E-5</v>
+        <v>8.993123282972135E-5</v>
       </c>
       <c r="G49" t="n">
-        <v>5.925640441674163E-4</v>
+        <v>5.658173398869968E-4</v>
       </c>
       <c r="H49" t="n">
-        <v>3.520182440598513E-4</v>
+        <v>3.372421231114551E-4</v>
       </c>
       <c r="I49" t="s">
         <v>684</v>
@@ -5940,28 +5969,28 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B50" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C50" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D50" t="s">
         <v>543</v>
       </c>
       <c r="E50" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F50" t="n">
-        <v>1.0267166537844976E-4</v>
+        <v>9.692857950054264E-5</v>
       </c>
       <c r="G50" t="n">
-        <v>6.34888053258577E-4</v>
+        <v>5.973965512074261E-4</v>
       </c>
       <c r="H50" t="n">
-        <v>3.771612197575706E-4</v>
+        <v>3.560641695938301E-4</v>
       </c>
       <c r="I50" t="s">
         <v>685</v>
@@ -5972,28 +6001,28 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B51" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C51" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D51" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E51" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F51" t="n">
-        <v>1.1134001180881192E-4</v>
+        <v>1.0649276111653767E-4</v>
       </c>
       <c r="G51" t="n">
-        <v>6.747204715614001E-4</v>
+        <v>6.432162771438875E-4</v>
       </c>
       <c r="H51" t="n">
-        <v>4.008240425117229E-4</v>
+        <v>3.833739400195356E-4</v>
       </c>
       <c r="I51" t="s">
         <v>686</v>
@@ -6004,28 +6033,28 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B52" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C52" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D52" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E52" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F52" t="n">
-        <v>1.2937869296358827E-4</v>
+        <v>1.2668172104242882E-4</v>
       </c>
       <c r="G52" t="n">
-        <v>7.681553967342029E-4</v>
+        <v>7.45309563802673E-4</v>
       </c>
       <c r="H52" t="n">
-        <v>4.563299386539819E-4</v>
+        <v>4.442242433260966E-4</v>
       </c>
       <c r="I52" t="s">
         <v>687</v>
@@ -6036,572 +6065,572 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B53" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C53" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D53" t="s">
-        <v>536</v>
+        <v>555</v>
       </c>
       <c r="E53" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F53" t="n">
-        <v>1.3182864894448367E-4</v>
+        <v>1.2903462493468387E-4</v>
       </c>
       <c r="G53" t="n">
-        <v>7.681553967342029E-4</v>
+        <v>7.45309563802673E-4</v>
       </c>
       <c r="H53" t="n">
-        <v>4.563299386539819E-4</v>
+        <v>4.442242433260966E-4</v>
       </c>
       <c r="I53" t="s">
         <v>688</v>
       </c>
       <c r="J53" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B54" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C54" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D54" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="E54" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F54" t="n">
-        <v>1.3441402088520938E-4</v>
+        <v>1.307993605349062E-4</v>
       </c>
       <c r="G54" t="n">
-        <v>7.684424212871404E-4</v>
+        <v>7.45309563802673E-4</v>
       </c>
       <c r="H54" t="n">
-        <v>4.5650044828939035E-4</v>
+        <v>4.442242433260966E-4</v>
       </c>
       <c r="I54" t="s">
         <v>689</v>
       </c>
       <c r="J54" t="n">
-        <v>38.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B55" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C55" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D55" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="E55" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F55" t="n">
-        <v>1.3760034495666695E-4</v>
+        <v>1.3665244532469936E-4</v>
       </c>
       <c r="G55" t="n">
-        <v>7.720908244790756E-4</v>
+        <v>7.642414534825779E-4</v>
       </c>
       <c r="H55" t="n">
-        <v>4.5866781652222316E-4</v>
+        <v>4.5550815108233125E-4</v>
       </c>
       <c r="I55" t="s">
         <v>690</v>
       </c>
       <c r="J55" t="n">
-        <v>54.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B56" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C56" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D56" t="s">
-        <v>515</v>
+        <v>549</v>
       </c>
       <c r="E56" t="s">
-        <v>616</v>
+        <v>233</v>
       </c>
       <c r="F56" t="n">
-        <v>1.444542456782402E-4</v>
+        <v>1.456745631372142E-4</v>
       </c>
       <c r="G56" t="n">
-        <v>7.958115716455778E-4</v>
+        <v>7.998857830443398E-4</v>
       </c>
       <c r="H56" t="n">
-        <v>4.727593494924225E-4</v>
+        <v>4.7675311572179197E-4</v>
       </c>
       <c r="I56" t="s">
         <v>691</v>
       </c>
       <c r="J56" t="n">
-        <v>63.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B57" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C57" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D57" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="E57" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="F57" t="n">
-        <v>1.5119025577666357E-4</v>
+        <v>1.516867882341862E-4</v>
       </c>
       <c r="G57" t="n">
-        <v>8.180472767915903E-4</v>
+        <v>8.180251794057899E-4</v>
       </c>
       <c r="H57" t="n">
-        <v>4.859686792821329E-4</v>
+        <v>4.875646764670271E-4</v>
       </c>
       <c r="I57" t="s">
         <v>692</v>
       </c>
       <c r="J57" t="n">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B58" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C58" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D58" t="s">
-        <v>555</v>
+        <v>529</v>
       </c>
       <c r="E58" t="s">
-        <v>204</v>
+        <v>606</v>
       </c>
       <c r="F58" t="n">
-        <v>1.5764005382258302E-4</v>
+        <v>1.7279691305837117E-4</v>
       </c>
       <c r="G58" t="n">
-        <v>8.379813387410992E-4</v>
+        <v>9.155204867303174E-4</v>
       </c>
       <c r="H58" t="n">
-        <v>4.978106962818411E-4</v>
+        <v>5.456744622895932E-4</v>
       </c>
       <c r="I58" t="s">
         <v>693</v>
       </c>
       <c r="J58" t="n">
-        <v>35.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B59" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C59" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D59" t="s">
-        <v>528</v>
+        <v>557</v>
       </c>
       <c r="E59" t="s">
-        <v>607</v>
+        <v>198</v>
       </c>
       <c r="F59" t="n">
-        <v>1.8058825795703366E-4</v>
+        <v>1.7652139504504712E-4</v>
       </c>
       <c r="G59" t="n">
-        <v>9.434179682927794E-4</v>
+        <v>9.191286431655902E-4</v>
       </c>
       <c r="H59" t="n">
-        <v>5.604463177976908E-4</v>
+        <v>5.478250191053186E-4</v>
       </c>
       <c r="I59" t="s">
         <v>694</v>
       </c>
       <c r="J59" t="n">
-        <v>44.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B60" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C60" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D60" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E60" t="s">
-        <v>197</v>
+        <v>615</v>
       </c>
       <c r="F60" t="n">
-        <v>1.8586556193567191E-4</v>
+        <v>1.8563181532841208E-4</v>
       </c>
       <c r="G60" t="n">
-        <v>9.54529919771332E-4</v>
+        <v>9.476190253386113E-4</v>
       </c>
       <c r="H60" t="n">
-        <v>5.670474770918804E-4</v>
+        <v>5.648060415925499E-4</v>
       </c>
       <c r="I60" t="s">
         <v>695</v>
       </c>
       <c r="J60" t="n">
-        <v>57.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B61" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C61" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D61" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="E61" t="s">
-        <v>617</v>
+        <v>232</v>
       </c>
       <c r="F61" t="n">
-        <v>1.932337116789952E-4</v>
+        <v>1.8826868053084994E-4</v>
       </c>
       <c r="G61" t="n">
-        <v>9.758302439789257E-4</v>
+        <v>9.476190253386113E-4</v>
       </c>
       <c r="H61" t="n">
-        <v>5.797011350369856E-4</v>
+        <v>5.648060415925499E-4</v>
       </c>
       <c r="I61" t="s">
         <v>696</v>
       </c>
       <c r="J61" t="n">
-        <v>38.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B62" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C62" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D62" t="s">
-        <v>547</v>
+        <v>522</v>
       </c>
       <c r="E62" t="s">
-        <v>231</v>
+        <v>616</v>
       </c>
       <c r="F62" t="n">
-        <v>1.9707688698550164E-4</v>
+        <v>2.1005907915913293E-4</v>
       </c>
       <c r="G62" t="n">
-        <v>9.78922897649295E-4</v>
+        <v>0.0010399646214107891</v>
       </c>
       <c r="H62" t="n">
-        <v>5.815383550391852E-4</v>
+        <v>6.198464630925234E-4</v>
       </c>
       <c r="I62" t="s">
         <v>697</v>
       </c>
       <c r="J62" t="n">
-        <v>47.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B63" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C63" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D63" t="s">
-        <v>521</v>
+        <v>556</v>
       </c>
       <c r="E63" t="s">
-        <v>618</v>
+        <v>236</v>
       </c>
       <c r="F63" t="n">
-        <v>2.209540024159958E-4</v>
+        <v>2.220202584702765E-4</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0010798235924523664</v>
+        <v>0.0010796337994421034</v>
       </c>
       <c r="H63" t="n">
-        <v>6.414793618528911E-4</v>
+        <v>6.434903440383398E-4</v>
       </c>
       <c r="I63" t="s">
         <v>698</v>
       </c>
       <c r="J63" t="n">
-        <v>56.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B64" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C64" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D64" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="E64" t="s">
-        <v>234</v>
+        <v>617</v>
       </c>
       <c r="F64" t="n">
-        <v>2.3057114093074128E-4</v>
+        <v>2.252216204134189E-4</v>
       </c>
       <c r="G64" t="n">
-        <v>0.00110893739209547</v>
+        <v>0.0010796337994421034</v>
       </c>
       <c r="H64" t="n">
-        <v>6.587746883735465E-4</v>
+        <v>6.434903440383398E-4</v>
       </c>
       <c r="I64" t="s">
         <v>699</v>
       </c>
       <c r="J64" t="n">
-        <v>35.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B65" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C65" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D65" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E65" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F65" t="n">
-        <v>2.355195187119836E-4</v>
+        <v>2.4356395119059057E-4</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0011150377214020474</v>
+        <v>0.0011493173946805991</v>
       </c>
       <c r="H65" t="n">
-        <v>6.623986463774539E-4</v>
+        <v>6.85023612723536E-4</v>
       </c>
       <c r="I65" t="s">
         <v>700</v>
       </c>
       <c r="J65" t="n">
-        <v>46.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B66" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C66" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D66" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="E66" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="F66" t="n">
-        <v>2.4936131330658546E-4</v>
+        <v>2.4797517274910506E-4</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0011624073527983908</v>
+        <v>0.001152130802618919</v>
       </c>
       <c r="H66" t="n">
-        <v>6.905390214643905E-4</v>
+        <v>6.86700478382137E-4</v>
       </c>
       <c r="I66" t="s">
         <v>701</v>
       </c>
       <c r="J66" t="n">
-        <v>17.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B67" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C67" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D67" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E67" t="s">
-        <v>612</v>
+        <v>591</v>
       </c>
       <c r="F67" t="n">
-        <v>2.5863060309191287E-4</v>
+        <v>2.588010357224857E-4</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0011873495869219636</v>
+        <v>0.001184210799821071</v>
       </c>
       <c r="H67" t="n">
-        <v>7.053561902506715E-4</v>
+        <v>7.058210065158701E-4</v>
       </c>
       <c r="I67" t="s">
         <v>702</v>
       </c>
       <c r="J67" t="n">
-        <v>42.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B68" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C68" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D68" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
       <c r="E68" t="s">
-        <v>590</v>
+        <v>619</v>
       </c>
       <c r="F68" t="n">
-        <v>2.733426425168841E-4</v>
+        <v>2.880493132773783E-4</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0012361615027256102</v>
+        <v>0.0012893179938631499</v>
       </c>
       <c r="H68" t="n">
-        <v>7.343533679558081E-4</v>
+        <v>7.6846767846148E-4</v>
       </c>
       <c r="I68" t="s">
         <v>703</v>
       </c>
       <c r="J68" t="n">
-        <v>65.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B69" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C69" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D69" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E69" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F69" t="n">
-        <v>2.942910060668947E-4</v>
+        <v>2.9457927674356735E-4</v>
       </c>
       <c r="G69" t="n">
-        <v>0.001311326100562781</v>
+        <v>0.0012893179938631499</v>
       </c>
       <c r="H69" t="n">
-        <v>7.790056042947214E-4</v>
+        <v>7.6846767846148E-4</v>
       </c>
       <c r="I69" t="s">
         <v>704</v>
       </c>
       <c r="J69" t="n">
-        <v>15.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B70" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C70" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D70" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E70" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F70" t="n">
-        <v>3.113142525177475E-4</v>
+        <v>2.9457927674356735E-4</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0013475459787553928</v>
+        <v>0.0012893179938631499</v>
       </c>
       <c r="H70" t="n">
-        <v>8.005223636170651E-4</v>
+        <v>7.6846767846148E-4</v>
       </c>
       <c r="I70" t="s">
         <v>705</v>
@@ -6612,1020 +6641,1020 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B71" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C71" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D71" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="E71" t="s">
-        <v>622</v>
+        <v>185</v>
       </c>
       <c r="F71" t="n">
-        <v>3.113142525177475E-4</v>
+        <v>5.58099025248699E-4</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0013475459787553928</v>
+        <v>0.002407798651787244</v>
       </c>
       <c r="H71" t="n">
-        <v>8.005223636170651E-4</v>
+        <v>0.0014351117792109403</v>
       </c>
       <c r="I71" t="s">
         <v>706</v>
       </c>
       <c r="J71" t="n">
-        <v>67.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B72" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C72" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D72" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="E72" t="s">
-        <v>184</v>
+        <v>621</v>
       </c>
       <c r="F72" t="n">
-        <v>5.863077158432291E-4</v>
+        <v>6.378716624847435E-4</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0025021301112746258</v>
+        <v>0.00271320059254074</v>
       </c>
       <c r="H72" t="n">
-        <v>0.0014864139274898766</v>
+        <v>0.0016171394260176596</v>
       </c>
       <c r="I72" t="s">
         <v>707</v>
       </c>
       <c r="J72" t="n">
-        <v>59.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B73" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C73" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D73" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E73" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F73" t="n">
-        <v>6.610460453381583E-4</v>
+        <v>6.61277660551006E-4</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0027819021074647495</v>
+        <v>0.0027736924095333863</v>
       </c>
       <c r="H73" t="n">
-        <v>0.0016526151133453959</v>
+        <v>0.0016531941513775149</v>
       </c>
       <c r="I73" t="s">
         <v>708</v>
       </c>
       <c r="J73" t="n">
-        <v>35.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>373</v>
+        <v>43</v>
       </c>
       <c r="B74" t="s">
-        <v>373</v>
+        <v>43</v>
       </c>
       <c r="C74" t="s">
-        <v>478</v>
+        <v>107</v>
       </c>
       <c r="D74" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="E74" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F74" t="n">
-        <v>6.873278918087432E-4</v>
+        <v>7.7862374559353E-4</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0028528815235349205</v>
+        <v>0.0032211557694417268</v>
       </c>
       <c r="H74" t="n">
-        <v>0.0016947811030900517</v>
+        <v>0.0019198941672169234</v>
       </c>
       <c r="I74" t="s">
         <v>709</v>
       </c>
       <c r="J74" t="n">
-        <v>40.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>43</v>
+        <v>376</v>
       </c>
       <c r="B75" t="s">
-        <v>43</v>
+        <v>376</v>
       </c>
       <c r="C75" t="s">
-        <v>106</v>
+        <v>480</v>
       </c>
       <c r="D75" t="s">
-        <v>556</v>
+        <v>528</v>
       </c>
       <c r="E75" t="s">
-        <v>214</v>
+        <v>604</v>
       </c>
       <c r="F75" t="n">
-        <v>8.163308370247753E-4</v>
+        <v>8.411503427196971E-4</v>
       </c>
       <c r="G75" t="n">
-        <v>0.003342543832682526</v>
+        <v>0.003432802750018223</v>
       </c>
       <c r="H75" t="n">
-        <v>0.0019856696035737776</v>
+        <v>0.0020460413741830467</v>
       </c>
       <c r="I75" t="s">
         <v>710</v>
       </c>
       <c r="J75" t="n">
-        <v>57.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B76" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C76" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D76" t="s">
-        <v>527</v>
+        <v>549</v>
       </c>
       <c r="E76" t="s">
-        <v>605</v>
+        <v>215</v>
       </c>
       <c r="F76" t="n">
-        <v>8.893558940110178E-4</v>
+        <v>9.191763083371073E-4</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0035929978118045118</v>
+        <v>0.0037012166015707518</v>
       </c>
       <c r="H76" t="n">
-        <v>0.0021344541456264424</v>
+        <v>0.0022060231400090574</v>
       </c>
       <c r="I76" t="s">
         <v>711</v>
       </c>
       <c r="J76" t="n">
-        <v>76.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B77" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C77" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D77" t="s">
-        <v>548</v>
+        <v>529</v>
       </c>
       <c r="E77" t="s">
-        <v>204</v>
+        <v>617</v>
       </c>
       <c r="F77" t="n">
-        <v>9.506471077807303E-4</v>
+        <v>0.001002045598895732</v>
       </c>
       <c r="G77" t="n">
-        <v>0.003790079916546859</v>
+        <v>0.003981812774559356</v>
       </c>
       <c r="H77" t="n">
-        <v>0.0022515326236912034</v>
+        <v>0.0023732658921214707</v>
       </c>
       <c r="I77" t="s">
         <v>712</v>
       </c>
       <c r="J77" t="n">
-        <v>33.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>376</v>
+        <v>61</v>
       </c>
       <c r="B78" t="s">
-        <v>376</v>
+        <v>61</v>
       </c>
       <c r="C78" t="s">
-        <v>481</v>
+        <v>125</v>
       </c>
       <c r="D78" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="E78" t="s">
-        <v>619</v>
+        <v>231</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0010427955572597433</v>
+        <v>0.001204436899104769</v>
       </c>
       <c r="G78" t="n">
-        <v>0.004103468231814315</v>
+        <v>0.004723895370514809</v>
       </c>
       <c r="H78" t="n">
-        <v>0.0024377039000877117</v>
+        <v>0.002815566777128032</v>
       </c>
       <c r="I78" t="s">
         <v>713</v>
       </c>
       <c r="J78" t="n">
-        <v>44.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>61</v>
+        <v>379</v>
       </c>
       <c r="B79" t="s">
-        <v>61</v>
+        <v>379</v>
       </c>
       <c r="C79" t="s">
-        <v>124</v>
+        <v>483</v>
       </c>
       <c r="D79" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="E79" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0012585885390676464</v>
+        <v>0.0013747399431582408</v>
       </c>
       <c r="G79" t="n">
-        <v>0.00488913240176278</v>
+        <v>0.00532271106197165</v>
       </c>
       <c r="H79" t="n">
-        <v>0.002904435090156107</v>
+        <v>0.0031724767919036325</v>
       </c>
       <c r="I79" t="s">
         <v>714</v>
       </c>
       <c r="J79" t="n">
-        <v>53.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B80" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C80" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D80" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="E80" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="F80" t="n">
-        <v>0.001413261051440821</v>
+        <v>0.0015257803137231874</v>
       </c>
       <c r="G80" t="n">
-        <v>0.005420482260589479</v>
+        <v>0.005832729806891172</v>
       </c>
       <c r="H80" t="n">
-        <v>0.0032200884716373137</v>
+        <v>0.0034764614743059965</v>
       </c>
       <c r="I80" t="s">
         <v>715</v>
       </c>
       <c r="J80" t="n">
-        <v>25.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B81" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C81" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D81" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="E81" t="s">
-        <v>624</v>
+        <v>595</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0015753394897924135</v>
+        <v>0.0015491562567234447</v>
       </c>
       <c r="G81" t="n">
-        <v>0.005966598317588766</v>
+        <v>0.005848064869131003</v>
       </c>
       <c r="H81" t="n">
-        <v>0.0035445138520329303</v>
+        <v>0.0034856015776277504</v>
       </c>
       <c r="I81" t="s">
         <v>716</v>
       </c>
       <c r="J81" t="n">
-        <v>32.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B82" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C82" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D82" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="E82" t="s">
-        <v>625</v>
+        <v>219</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0016068138532728971</v>
+        <v>0.0015903438644811643</v>
       </c>
       <c r="G82" t="n">
-        <v>0.005998853714182264</v>
+        <v>0.005869366323352331</v>
       </c>
       <c r="H82" t="n">
-        <v>0.0035636754737716414</v>
+        <v>0.0034982978086205946</v>
       </c>
       <c r="I82" t="s">
         <v>717</v>
       </c>
       <c r="J82" t="n">
-        <v>40.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B83" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C83" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D83" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E83" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F83" t="n">
-        <v>0.001631037161437904</v>
+        <v>0.0015936690017049374</v>
       </c>
       <c r="G83" t="n">
-        <v>0.005998853714182264</v>
+        <v>0.005869366323352331</v>
       </c>
       <c r="H83" t="n">
-        <v>0.0035636754737716414</v>
+        <v>0.0034982978086205946</v>
       </c>
       <c r="I83" t="s">
         <v>718</v>
       </c>
       <c r="J83" t="n">
-        <v>22.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>381</v>
+        <v>62</v>
       </c>
       <c r="B84" t="s">
-        <v>381</v>
+        <v>62</v>
       </c>
       <c r="C84" t="s">
-        <v>486</v>
+        <v>126</v>
       </c>
       <c r="D84" t="s">
-        <v>566</v>
+        <v>529</v>
       </c>
       <c r="E84" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="F84" t="n">
-        <v>0.001643250357350257</v>
+        <v>0.001677090488327731</v>
       </c>
       <c r="G84" t="n">
-        <v>0.005998853714182264</v>
+        <v>0.006102184668373189</v>
       </c>
       <c r="H84" t="n">
-        <v>0.0035636754737716414</v>
+        <v>0.0036370637096264044</v>
       </c>
       <c r="I84" t="s">
         <v>719</v>
       </c>
       <c r="J84" t="n">
-        <v>30.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>63</v>
+        <v>384</v>
       </c>
       <c r="B85" t="s">
-        <v>63</v>
+        <v>384</v>
       </c>
       <c r="C85" t="s">
-        <v>126</v>
+        <v>488</v>
       </c>
       <c r="D85" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="E85" t="s">
-        <v>231</v>
+        <v>623</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0017428542326805537</v>
+        <v>0.0017015983309884531</v>
       </c>
       <c r="G85" t="n">
-        <v>0.006286724196454855</v>
+        <v>0.006117651142363249</v>
       </c>
       <c r="H85" t="n">
-        <v>0.003734687641458329</v>
+        <v>0.0036462821378324</v>
       </c>
       <c r="I85" t="s">
         <v>720</v>
       </c>
       <c r="J85" t="n">
-        <v>44.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B86" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C86" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D86" t="s">
-        <v>519</v>
+        <v>568</v>
       </c>
       <c r="E86" t="s">
-        <v>626</v>
+        <v>596</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0018168686769005373</v>
+        <v>0.0018479888333667606</v>
       </c>
       <c r="G86" t="n">
-        <v>0.006476602460010151</v>
+        <v>0.006565795619726608</v>
       </c>
       <c r="H86" t="n">
-        <v>0.00384748660990702</v>
+        <v>0.003913388117717846</v>
       </c>
       <c r="I86" t="s">
         <v>721</v>
       </c>
       <c r="J86" t="n">
-        <v>110.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B87" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C87" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D87" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="E87" t="s">
-        <v>595</v>
+        <v>624</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0019148480632931342</v>
+        <v>0.0023992243677278366</v>
       </c>
       <c r="G87" t="n">
-        <v>0.006746499571835113</v>
+        <v>0.008425183244811705</v>
       </c>
       <c r="H87" t="n">
-        <v>0.004007821527822839</v>
+        <v>0.005021632397569891</v>
       </c>
       <c r="I87" t="s">
         <v>722</v>
       </c>
       <c r="J87" t="n">
-        <v>39.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B88" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C88" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D88" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="E88" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0024437495584408962</v>
+        <v>0.002602810897928841</v>
       </c>
       <c r="G88" t="n">
-        <v>0.00851098984146657</v>
+        <v>0.009035044726143793</v>
       </c>
       <c r="H88" t="n">
-        <v>0.005056033569188061</v>
+        <v>0.005385125995714844</v>
       </c>
       <c r="I88" t="s">
         <v>723</v>
       </c>
       <c r="J88" t="n">
-        <v>14.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B89" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C89" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D89" t="s">
-        <v>547</v>
+        <v>569</v>
       </c>
       <c r="E89" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0027054548903797764</v>
+        <v>0.0028773127443653067</v>
       </c>
       <c r="G89" t="n">
-        <v>0.00931537308846673</v>
+        <v>0.00987441419089003</v>
       </c>
       <c r="H89" t="n">
-        <v>0.005533885003049543</v>
+        <v>0.005885412431656309</v>
       </c>
       <c r="I89" t="s">
         <v>724</v>
       </c>
       <c r="J89" t="n">
-        <v>47.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B90" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C90" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D90" t="s">
         <v>568</v>
       </c>
       <c r="E90" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002945947963669377</v>
+        <v>0.003958283631291384</v>
       </c>
       <c r="G90" t="n">
-        <v>0.010029463292042936</v>
+        <v>0.013431479288202222</v>
       </c>
       <c r="H90" t="n">
-        <v>0.005958097005174021</v>
+        <v>0.00800551745654437</v>
       </c>
       <c r="I90" t="s">
         <v>725</v>
       </c>
       <c r="J90" t="n">
-        <v>21.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B91" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C91" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D91" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="E91" t="s">
-        <v>630</v>
+        <v>193</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0040930245273225856</v>
+        <v>0.00484418009315784</v>
       </c>
       <c r="G91" t="n">
-        <v>0.013779849241986037</v>
+        <v>0.016254915423707418</v>
       </c>
       <c r="H91" t="n">
-        <v>0.008186049054645171</v>
+        <v>0.00968836018631568</v>
       </c>
       <c r="I91" t="s">
         <v>726</v>
       </c>
       <c r="J91" t="n">
-        <v>39.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B92" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C92" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E92" t="s">
-        <v>192</v>
+        <v>602</v>
       </c>
       <c r="F92" t="n">
-        <v>0.004964803750632374</v>
+        <v>0.005013191901646297</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01653115974111659</v>
+        <v>0.016637186310958042</v>
       </c>
       <c r="H92" t="n">
-        <v>0.009820490935316785</v>
+        <v>0.009916203761498169</v>
       </c>
       <c r="I92" t="s">
         <v>727</v>
       </c>
       <c r="J92" t="n">
-        <v>24.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B93" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C93" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D93" t="s">
-        <v>567</v>
+        <v>549</v>
       </c>
       <c r="E93" t="s">
-        <v>602</v>
+        <v>628</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0051802996547333485</v>
+        <v>0.005322100887866799</v>
       </c>
       <c r="G93" t="n">
-        <v>0.017061204297654398</v>
+        <v>0.017470374653649708</v>
       </c>
       <c r="H93" t="n">
-        <v>0.010135368889695682</v>
+        <v>0.010412806084956781</v>
       </c>
       <c r="I93" t="s">
         <v>728</v>
       </c>
       <c r="J93" t="n">
-        <v>39.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B94" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C94" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D94" t="s">
-        <v>548</v>
+        <v>571</v>
       </c>
       <c r="E94" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F94" t="n">
-        <v>0.005481717686672372</v>
+        <v>0.0055665985566713296</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01785978988238418</v>
+        <v>0.018076481334567112</v>
       </c>
       <c r="H94" t="n">
-        <v>0.010609776167752978</v>
+        <v>0.01077406172258967</v>
       </c>
       <c r="I94" t="s">
         <v>729</v>
       </c>
       <c r="J94" t="n">
-        <v>33.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B95" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C95" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D95" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="E95" t="s">
-        <v>218</v>
+        <v>630</v>
       </c>
       <c r="F95" t="n">
-        <v>0.005766683413869586</v>
+        <v>0.00624008838624125</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01858835185534558</v>
+        <v>0.019884687316586498</v>
       </c>
       <c r="H95" t="n">
-        <v>0.011042585260601336</v>
+        <v>0.011851800387369436</v>
       </c>
       <c r="I95" t="s">
         <v>730</v>
       </c>
       <c r="J95" t="n">
-        <v>45.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B96" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C96" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D96" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E96" t="s">
-        <v>632</v>
+        <v>606</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0063997443077382</v>
+        <v>0.006296521090424998</v>
       </c>
       <c r="G96" t="n">
-        <v>0.020411816055207102</v>
+        <v>0.019884687316586498</v>
       </c>
       <c r="H96" t="n">
-        <v>0.01212583131992501</v>
+        <v>0.011851800387369436</v>
       </c>
       <c r="I96" t="s">
         <v>731</v>
       </c>
       <c r="J96" t="n">
-        <v>26.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B97" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C97" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D97" t="s">
-        <v>567</v>
+        <v>534</v>
       </c>
       <c r="E97" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="F97" t="n">
-        <v>0.006501978840215243</v>
+        <v>0.0063209602065970325</v>
       </c>
       <c r="G97" t="n">
-        <v>0.020473131904888107</v>
+        <v>0.019884687316586498</v>
       </c>
       <c r="H97" t="n">
-        <v>0.012162256577161253</v>
+        <v>0.011851800387369436</v>
       </c>
       <c r="I97" t="s">
         <v>732</v>
       </c>
       <c r="J97" t="n">
-        <v>39.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B98" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C98" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D98" t="s">
-        <v>533</v>
+        <v>573</v>
       </c>
       <c r="E98" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
       <c r="F98" t="n">
-        <v>0.006554104933248008</v>
+        <v>0.007067025137622949</v>
       </c>
       <c r="G98" t="n">
-        <v>0.020473131904888107</v>
+        <v>0.02200249063466114</v>
       </c>
       <c r="H98" t="n">
-        <v>0.012162256577161253</v>
+        <v>0.013114067265692069</v>
       </c>
       <c r="I98" t="s">
         <v>733</v>
       </c>
       <c r="J98" t="n">
-        <v>48.0</v>
+        <v>88.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>395</v>
+        <v>26</v>
       </c>
       <c r="B99" t="s">
-        <v>395</v>
+        <v>26</v>
       </c>
       <c r="C99" t="s">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="D99" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E99" t="s">
-        <v>633</v>
+        <v>202</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0074342781259120645</v>
+        <v>0.007210868015919543</v>
       </c>
       <c r="G99" t="n">
-        <v>0.022985574205626077</v>
+        <v>0.02222124633477247</v>
       </c>
       <c r="H99" t="n">
-        <v>0.013654796557797671</v>
+        <v>0.013244451457811406</v>
       </c>
       <c r="I99" t="s">
         <v>734</v>
       </c>
       <c r="J99" t="n">
-        <v>88.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>26</v>
+        <v>398</v>
       </c>
       <c r="B100" t="s">
-        <v>26</v>
+        <v>398</v>
       </c>
       <c r="C100" t="s">
-        <v>89</v>
+        <v>502</v>
       </c>
       <c r="D100" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E100" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0075271189061611845</v>
+        <v>0.008037972807879644</v>
       </c>
       <c r="G100" t="n">
-        <v>0.023037545743099384</v>
+        <v>0.024493671254916517</v>
       </c>
       <c r="H100" t="n">
-        <v>0.013685670738474882</v>
+        <v>0.014598876906903886</v>
       </c>
       <c r="I100" t="s">
         <v>735</v>
       </c>
       <c r="J100" t="n">
-        <v>66.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>396</v>
+        <v>64</v>
       </c>
       <c r="B101" t="s">
-        <v>396</v>
+        <v>64</v>
       </c>
       <c r="C101" t="s">
-        <v>501</v>
+        <v>128</v>
       </c>
       <c r="D101" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="E101" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F101" t="n">
-        <v>0.008224386055454438</v>
+        <v>0.008152567647997927</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02490272375803458</v>
+        <v>0.024493671254916517</v>
       </c>
       <c r="H101" t="n">
-        <v>0.014793697282000742</v>
+        <v>0.014598876906903886</v>
       </c>
       <c r="I101" t="s">
         <v>736</v>
       </c>
       <c r="J101" t="n">
-        <v>23.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B102" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C102" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D102" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E102" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F102" t="n">
-        <v>0.00832411937401029</v>
+        <v>0.00819159204220718</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02490272375803458</v>
+        <v>0.024493671254916517</v>
       </c>
       <c r="H102" t="n">
-        <v>0.014793697282000742</v>
+        <v>0.014598876906903886</v>
       </c>
       <c r="I102" t="s">
         <v>737</v>
@@ -7636,98 +7665,98 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>64</v>
+        <v>400</v>
       </c>
       <c r="B103" t="s">
-        <v>64</v>
+        <v>400</v>
       </c>
       <c r="C103" t="s">
-        <v>127</v>
+        <v>504</v>
       </c>
       <c r="D103" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="E103" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="F103" t="n">
-        <v>0.008383095126467087</v>
+        <v>0.009288255335125973</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02490272375803458</v>
+        <v>0.027500520698118078</v>
       </c>
       <c r="H103" t="n">
-        <v>0.014793697282000742</v>
+        <v>0.01639103882669289</v>
       </c>
       <c r="I103" t="s">
         <v>738</v>
       </c>
       <c r="J103" t="n">
-        <v>32.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B104" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C104" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D104" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E104" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="F104" t="n">
-        <v>0.009556971916966571</v>
+        <v>0.010863250978594993</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02811419894020263</v>
+        <v>0.031851473743064934</v>
       </c>
       <c r="H104" t="n">
-        <v>0.016701504320912455</v>
+        <v>0.01898432209851552</v>
       </c>
       <c r="I104" t="s">
         <v>739</v>
       </c>
       <c r="J104" t="n">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B105" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C105" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D105" t="s">
-        <v>574</v>
+        <v>556</v>
       </c>
       <c r="E105" t="s">
-        <v>192</v>
+        <v>632</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0111078627097201</v>
+        <v>0.012243367493773749</v>
       </c>
       <c r="G105" t="n">
-        <v>0.032362330779280676</v>
+        <v>0.035552855606919925</v>
       </c>
       <c r="H105" t="n">
-        <v>0.019225146997592483</v>
+        <v>0.021190443739223797</v>
       </c>
       <c r="I105" t="s">
         <v>740</v>
       </c>
       <c r="J105" t="n">
-        <v>23.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="106">
@@ -7738,22 +7767,22 @@
         <v>56</v>
       </c>
       <c r="C106" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D106" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E106" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F106" t="n">
-        <v>0.013211201857911331</v>
+        <v>0.012744444894360765</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03812375393282984</v>
+        <v>0.03665545102949477</v>
       </c>
       <c r="H106" t="n">
-        <v>0.022647774613562283</v>
+        <v>0.021847619818904165</v>
       </c>
       <c r="I106" t="s">
         <v>741</v>
@@ -7764,28 +7793,28 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B107" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C107" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D107" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E107" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="F107" t="n">
-        <v>0.014579855650879136</v>
+        <v>0.01412606200679041</v>
       </c>
       <c r="G107" t="n">
-        <v>0.041676379832229986</v>
+        <v>0.04024595024576136</v>
       </c>
       <c r="H107" t="n">
-        <v>0.0247582454448891</v>
+        <v>0.023987652464361072</v>
       </c>
       <c r="I107" t="s">
         <v>742</v>
@@ -7796,28 +7825,28 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B108" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C108" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D108" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E108" t="s">
-        <v>600</v>
+        <v>633</v>
       </c>
       <c r="F108" t="n">
-        <v>0.015457384585069178</v>
+        <v>0.015004668503750694</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0435640601720895</v>
+        <v>0.04234962512273561</v>
       </c>
       <c r="H108" t="n">
-        <v>0.02587963970619178</v>
+        <v>0.025241498417524533</v>
       </c>
       <c r="I108" t="s">
         <v>743</v>
@@ -7828,193 +7857,161 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>402</v>
+        <v>27</v>
       </c>
       <c r="B109" t="s">
-        <v>402</v>
+        <v>27</v>
       </c>
       <c r="C109" t="s">
-        <v>507</v>
+        <v>91</v>
       </c>
       <c r="D109" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="E109" t="s">
-        <v>579</v>
+        <v>203</v>
       </c>
       <c r="F109" t="n">
-        <v>0.01552778382371507</v>
+        <v>0.015196534276734354</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0435640601720895</v>
+        <v>0.04249401251457199</v>
       </c>
       <c r="H109" t="n">
-        <v>0.02587963970619178</v>
+        <v>0.025327557127890588</v>
       </c>
       <c r="I109" t="s">
         <v>744</v>
       </c>
       <c r="J109" t="n">
-        <v>35.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>27</v>
+        <v>405</v>
       </c>
       <c r="B110" t="s">
-        <v>27</v>
+        <v>405</v>
       </c>
       <c r="C110" t="s">
-        <v>90</v>
+        <v>509</v>
       </c>
       <c r="D110" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="E110" t="s">
-        <v>202</v>
+        <v>634</v>
       </c>
       <c r="F110" t="n">
-        <v>0.01574710334930952</v>
+        <v>0.016108175935573496</v>
       </c>
       <c r="G110" t="n">
-        <v>0.04377405793431913</v>
+        <v>0.044629992041680694</v>
       </c>
       <c r="H110" t="n">
-        <v>0.026004390852070767</v>
+        <v>0.026600657508286506</v>
       </c>
       <c r="I110" t="s">
         <v>745</v>
       </c>
       <c r="J110" t="n">
-        <v>55.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B111" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C111" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D111" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="E111" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F111" t="n">
-        <v>0.016364691096480314</v>
+        <v>0.016289025709891596</v>
       </c>
       <c r="G111" t="n">
-        <v>0.04507728547485032</v>
+        <v>0.04472077967624784</v>
       </c>
       <c r="H111" t="n">
-        <v>0.02677858543060415</v>
+        <v>0.026654769343458975</v>
       </c>
       <c r="I111" t="s">
         <v>746</v>
       </c>
       <c r="J111" t="n">
-        <v>14.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B112" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C112" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D112" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="E112" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F112" t="n">
-        <v>0.016842751537947225</v>
+        <v>0.016598428079386333</v>
       </c>
       <c r="G112" t="n">
-        <v>0.04597615960358567</v>
+        <v>0.045159687206979035</v>
       </c>
       <c r="H112" t="n">
-        <v>0.027312570061536038</v>
+        <v>0.026916369858464323</v>
       </c>
       <c r="I112" t="s">
         <v>747</v>
       </c>
       <c r="J112" t="n">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B113" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C113" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D113" t="s">
-        <v>518</v>
+        <v>578</v>
       </c>
       <c r="E113" t="s">
-        <v>636</v>
+        <v>603</v>
       </c>
       <c r="F113" t="n">
-        <v>0.017167798433361997</v>
+        <v>0.016894049971307598</v>
       </c>
       <c r="G113" t="n">
-        <v>0.046445026118827545</v>
+        <v>0.04555359902977585</v>
       </c>
       <c r="H113" t="n">
-        <v>0.02759110462504607</v>
+        <v>0.027151151739601496</v>
       </c>
       <c r="I113" t="s">
         <v>748</v>
       </c>
       <c r="J113" t="n">
-        <v>51.0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>406</v>
-      </c>
-      <c r="B114" t="s">
-        <v>406</v>
-      </c>
-      <c r="C114" t="s">
-        <v>511</v>
-      </c>
-      <c r="D114" t="s">
-        <v>539</v>
-      </c>
-      <c r="E114" t="s">
-        <v>603</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0.017478767508710927</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0.04686784562070275</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0.027842284527150152</v>
-      </c>
-      <c r="I114" t="s">
-        <v>749</v>
-      </c>
-      <c r="J114" t="n">
         <v>52.0</v>
       </c>
     </row>
